--- a/02_画面設計書・モックアップ/画面設計書.xlsx
+++ b/02_画面設計書・モックアップ/画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\abcc_system_grpA\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB0157F-E034-4DA4-87D8-79DF46A006A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8EEAC6-85E3-49D4-81AD-9C297ADD54E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="11" xr2:uid="{F45AE85F-3EC2-42A9-8800-A50263340ACB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="11" xr2:uid="{F45AE85F-3EC2-42A9-8800-A50263340ACB}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -3225,33 +3225,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3276,41 +3249,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3330,7 +3270,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3369,6 +3315,60 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3392,6 +3392,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3447,26 +3468,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3485,24 +3503,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -13212,16 +13212,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>26893</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95574</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>583498</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295834</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>17931</xdr:rowOff>
+      <xdr:colOff>235185</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>62716</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13236,8 +13236,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1347693" y="3524574"/>
-          <a:ext cx="1589741" cy="608157"/>
+          <a:off x="1242017" y="2612055"/>
+          <a:ext cx="1627242" cy="860846"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -13415,213 +13415,6 @@
               <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>56477</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>242047</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FFE1C6-1C7D-4C00-9F09-024E2035E760}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{98D8D6B5-7EEC-42F4-850F-8373E2BF9E70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1377277" y="2582637"/>
-          <a:ext cx="1506370" cy="882222"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9072"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>G2-1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>ヘッダー</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
             <a:t>画面</a:t>
           </a:r>
@@ -14104,7 +13897,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
+          <a:cxnSpLocks/>
           <a:endCxn id="8" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -15032,7 +14825,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
+          <a:cxnSpLocks/>
           <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -15092,7 +14885,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
+          <a:cxnSpLocks/>
           <a:endCxn id="13" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -15659,8 +15452,8 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="5" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -28591,21 +28384,21 @@
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
-      <c r="U3" s="118" t="s">
+      <c r="U3" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="120"/>
-      <c r="W3" s="131">
+      <c r="V3" s="110"/>
+      <c r="W3" s="111">
         <v>45040</v>
       </c>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="133"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="112"/>
+      <c r="AB3" s="112"/>
+      <c r="AC3" s="112"/>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="113"/>
       <c r="AF3" s="35"/>
     </row>
     <row r="4" spans="1:32" ht="19">
@@ -28664,18 +28457,18 @@
       <c r="S5" s="37"/>
       <c r="T5" s="37"/>
       <c r="U5" s="37"/>
-      <c r="V5" s="121" t="s">
+      <c r="V5" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
       <c r="AF5" s="38"/>
     </row>
     <row r="6" spans="1:32">
@@ -28701,17 +28494,17 @@
       <c r="T6" s="35"/>
       <c r="U6" s="35"/>
       <c r="V6" s="35"/>
-      <c r="W6" s="121" t="s">
+      <c r="W6" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="117"/>
+      <c r="AA6" s="117"/>
+      <c r="AB6" s="117"/>
+      <c r="AC6" s="117"/>
+      <c r="AD6" s="117"/>
+      <c r="AE6" s="117"/>
       <c r="AF6" s="38"/>
     </row>
     <row r="7" spans="1:32">
@@ -28722,20 +28515,20 @@
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
-      <c r="F7" s="134" t="s">
+      <c r="F7" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="136"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="116"/>
       <c r="R7" s="35"/>
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
@@ -28754,80 +28547,80 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="35"/>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="142" t="s">
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="144"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="126"/>
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
-      <c r="W8" s="148" t="s">
+      <c r="W8" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="148"/>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="148" t="s">
+      <c r="X8" s="130"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="148"/>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="148" t="s">
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="130"/>
+      <c r="AC8" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="148"/>
-      <c r="AE8" s="148"/>
+      <c r="AD8" s="130"/>
+      <c r="AE8" s="130"/>
       <c r="AF8" s="35"/>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="35"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="147"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="129"/>
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="104"/>
+      <c r="W9" s="141"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="141"/>
+      <c r="AD9" s="142"/>
+      <c r="AE9" s="143"/>
       <c r="AF9" s="35"/>
     </row>
     <row r="10" spans="1:32">
@@ -28853,15 +28646,15 @@
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="107"/>
+      <c r="W10" s="144"/>
+      <c r="X10" s="145"/>
+      <c r="Y10" s="146"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="145"/>
+      <c r="AB10" s="146"/>
+      <c r="AC10" s="144"/>
+      <c r="AD10" s="145"/>
+      <c r="AE10" s="146"/>
       <c r="AF10" s="35"/>
     </row>
     <row r="11" spans="1:32">
@@ -28887,15 +28680,15 @@
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
       <c r="V11" s="35"/>
-      <c r="W11" s="105"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="105"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="105"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="107"/>
+      <c r="W11" s="144"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="146"/>
+      <c r="Z11" s="144"/>
+      <c r="AA11" s="145"/>
+      <c r="AB11" s="146"/>
+      <c r="AC11" s="144"/>
+      <c r="AD11" s="145"/>
+      <c r="AE11" s="146"/>
       <c r="AF11" s="35"/>
     </row>
     <row r="12" spans="1:32">
@@ -28921,15 +28714,15 @@
       <c r="T12" s="41"/>
       <c r="U12" s="41"/>
       <c r="V12" s="41"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="110"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="148"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="149"/>
       <c r="AF12" s="35"/>
     </row>
     <row r="13" spans="1:32">
@@ -29036,106 +28829,106 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="35"/>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="118" t="s">
         <v>338</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="137"/>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="137"/>
-      <c r="AE16" s="137"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
+      <c r="AE16" s="118"/>
       <c r="AF16" s="35"/>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="35"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="137"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="118"/>
       <c r="AF17" s="35"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="35"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="137"/>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137"/>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="137"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="118"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="118"/>
+      <c r="AE18" s="118"/>
       <c r="AF18" s="35"/>
     </row>
     <row r="19" spans="1:32">
@@ -29278,19 +29071,19 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="42"/>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="109" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="119"/>
       <c r="D23" s="119"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="118" t="s">
+      <c r="E23" s="131"/>
+      <c r="F23" s="109" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="119"/>
       <c r="H23" s="119"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="118" t="s">
+      <c r="I23" s="110"/>
+      <c r="J23" s="109" t="s">
         <v>13</v>
       </c>
       <c r="K23" s="119"/>
@@ -29310,690 +29103,712 @@
       <c r="Y23" s="119"/>
       <c r="Z23" s="119"/>
       <c r="AA23" s="119"/>
-      <c r="AB23" s="120"/>
-      <c r="AC23" s="118" t="s">
+      <c r="AB23" s="110"/>
+      <c r="AC23" s="109" t="s">
         <v>9</v>
       </c>
       <c r="AD23" s="119"/>
-      <c r="AE23" s="120"/>
+      <c r="AE23" s="110"/>
       <c r="AF23" s="42"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="35"/>
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114">
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105">
         <v>45040</v>
       </c>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="111" t="s">
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="112"/>
-      <c r="Y24" s="112"/>
-      <c r="Z24" s="112"/>
-      <c r="AA24" s="112"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="111" t="s">
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="103"/>
+      <c r="Z24" s="103"/>
+      <c r="AA24" s="103"/>
+      <c r="AB24" s="108"/>
+      <c r="AC24" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="AD24" s="112"/>
-      <c r="AE24" s="117"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="108"/>
       <c r="AF24" s="35"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="35"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114">
+      <c r="B25" s="102"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105">
         <v>45041</v>
       </c>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="111" t="s">
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="112"/>
-      <c r="W25" s="112"/>
-      <c r="X25" s="112"/>
-      <c r="Y25" s="112"/>
-      <c r="Z25" s="112"/>
-      <c r="AA25" s="112"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="111" t="s">
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="103"/>
+      <c r="V25" s="103"/>
+      <c r="W25" s="103"/>
+      <c r="X25" s="103"/>
+      <c r="Y25" s="103"/>
+      <c r="Z25" s="103"/>
+      <c r="AA25" s="103"/>
+      <c r="AB25" s="108"/>
+      <c r="AC25" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="AD25" s="112"/>
-      <c r="AE25" s="117"/>
+      <c r="AD25" s="103"/>
+      <c r="AE25" s="108"/>
       <c r="AF25" s="35"/>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="35"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114">
+      <c r="B26" s="102"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="105">
         <v>45041</v>
       </c>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="111" t="s">
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="112"/>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="112"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="111" t="s">
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="103"/>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="103"/>
+      <c r="Z26" s="103"/>
+      <c r="AA26" s="103"/>
+      <c r="AB26" s="108"/>
+      <c r="AC26" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="AD26" s="112"/>
-      <c r="AE26" s="117"/>
+      <c r="AD26" s="103"/>
+      <c r="AE26" s="108"/>
       <c r="AF26" s="35"/>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="35"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="114">
+      <c r="B27" s="102"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="105">
         <v>45041</v>
       </c>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="111" t="s">
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="112"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="112"/>
-      <c r="W27" s="112"/>
-      <c r="X27" s="112"/>
-      <c r="Y27" s="112"/>
-      <c r="Z27" s="112"/>
-      <c r="AA27" s="112"/>
-      <c r="AB27" s="117"/>
-      <c r="AC27" s="122" t="s">
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="103"/>
+      <c r="Y27" s="103"/>
+      <c r="Z27" s="103"/>
+      <c r="AA27" s="103"/>
+      <c r="AB27" s="108"/>
+      <c r="AC27" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="AD27" s="123"/>
-      <c r="AE27" s="124"/>
+      <c r="AD27" s="133"/>
+      <c r="AE27" s="134"/>
       <c r="AF27" s="35"/>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="35"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="114">
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="105">
         <v>45041</v>
       </c>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="111" t="s">
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
-      <c r="V28" s="112"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="112"/>
-      <c r="Y28" s="112"/>
-      <c r="Z28" s="112"/>
-      <c r="AA28" s="112"/>
-      <c r="AB28" s="112"/>
-      <c r="AC28" s="125" t="s">
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="103"/>
+      <c r="Z28" s="103"/>
+      <c r="AA28" s="103"/>
+      <c r="AB28" s="103"/>
+      <c r="AC28" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="AD28" s="126"/>
-      <c r="AE28" s="127"/>
+      <c r="AD28" s="136"/>
+      <c r="AE28" s="137"/>
       <c r="AF28" s="35"/>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="35"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="114">
+      <c r="B29" s="102"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="105">
         <v>45042</v>
       </c>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="111" t="s">
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="112"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="112"/>
-      <c r="Y29" s="112"/>
-      <c r="Z29" s="112"/>
-      <c r="AA29" s="112"/>
-      <c r="AB29" s="117"/>
-      <c r="AC29" s="128" t="s">
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="108"/>
+      <c r="AC29" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="AD29" s="129"/>
-      <c r="AE29" s="130"/>
+      <c r="AD29" s="139"/>
+      <c r="AE29" s="140"/>
       <c r="AF29" s="35"/>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="35"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="114">
+      <c r="B30" s="102"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="105">
         <v>45042</v>
       </c>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="111" t="s">
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="112"/>
-      <c r="U30" s="112"/>
-      <c r="V30" s="112"/>
-      <c r="W30" s="112"/>
-      <c r="X30" s="112"/>
-      <c r="Y30" s="112"/>
-      <c r="Z30" s="112"/>
-      <c r="AA30" s="112"/>
-      <c r="AB30" s="117"/>
-      <c r="AC30" s="111" t="s">
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="103"/>
+      <c r="AB30" s="108"/>
+      <c r="AC30" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="AD30" s="112"/>
-      <c r="AE30" s="117"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="108"/>
       <c r="AF30" s="35"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="35"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="114">
+      <c r="B31" s="102"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="105">
         <v>45042</v>
       </c>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="111" t="s">
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="112"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="117"/>
-      <c r="AC31" s="111" t="s">
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="103"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="103"/>
+      <c r="Y31" s="103"/>
+      <c r="Z31" s="103"/>
+      <c r="AA31" s="103"/>
+      <c r="AB31" s="108"/>
+      <c r="AC31" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="AD31" s="112"/>
-      <c r="AE31" s="117"/>
+      <c r="AD31" s="103"/>
+      <c r="AE31" s="108"/>
       <c r="AF31" s="35"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="35"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="114">
+      <c r="B32" s="102"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="105">
         <v>45042</v>
       </c>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="111" t="s">
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="112"/>
-      <c r="Z32" s="112"/>
-      <c r="AA32" s="112"/>
-      <c r="AB32" s="117"/>
-      <c r="AC32" s="111" t="s">
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="103"/>
+      <c r="W32" s="103"/>
+      <c r="X32" s="103"/>
+      <c r="Y32" s="103"/>
+      <c r="Z32" s="103"/>
+      <c r="AA32" s="103"/>
+      <c r="AB32" s="108"/>
+      <c r="AC32" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="AD32" s="112"/>
-      <c r="AE32" s="117"/>
+      <c r="AD32" s="103"/>
+      <c r="AE32" s="108"/>
       <c r="AF32" s="35"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="35"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="114" t="s">
+      <c r="B33" s="102"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="111" t="s">
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="112"/>
-      <c r="W33" s="112"/>
-      <c r="X33" s="112"/>
-      <c r="Y33" s="112"/>
-      <c r="Z33" s="112"/>
-      <c r="AA33" s="112"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="111" t="s">
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="103"/>
+      <c r="Y33" s="103"/>
+      <c r="Z33" s="103"/>
+      <c r="AA33" s="103"/>
+      <c r="AB33" s="108"/>
+      <c r="AC33" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="AD33" s="112"/>
-      <c r="AE33" s="117"/>
+      <c r="AD33" s="103"/>
+      <c r="AE33" s="108"/>
       <c r="AF33" s="35"/>
     </row>
     <row r="34" spans="1:32" ht="18" customHeight="1">
-      <c r="B34" s="111"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="114" t="s">
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="111" t="s">
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="112"/>
-      <c r="S34" s="112"/>
-      <c r="T34" s="112"/>
-      <c r="U34" s="112"/>
-      <c r="V34" s="112"/>
-      <c r="W34" s="112"/>
-      <c r="X34" s="112"/>
-      <c r="Y34" s="112"/>
-      <c r="Z34" s="112"/>
-      <c r="AA34" s="112"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="111" t="s">
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="103"/>
+      <c r="W34" s="103"/>
+      <c r="X34" s="103"/>
+      <c r="Y34" s="103"/>
+      <c r="Z34" s="103"/>
+      <c r="AA34" s="103"/>
+      <c r="AB34" s="108"/>
+      <c r="AC34" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="AD34" s="112"/>
-      <c r="AE34" s="117"/>
+      <c r="AD34" s="103"/>
+      <c r="AE34" s="108"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="114">
+      <c r="B35" s="102"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="105">
         <v>45043</v>
       </c>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="111" t="s">
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="112"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="112"/>
-      <c r="S35" s="112"/>
-      <c r="T35" s="112"/>
-      <c r="U35" s="112"/>
-      <c r="V35" s="112"/>
-      <c r="W35" s="112"/>
-      <c r="X35" s="112"/>
-      <c r="Y35" s="112"/>
-      <c r="Z35" s="112"/>
-      <c r="AA35" s="112"/>
-      <c r="AB35" s="117"/>
-      <c r="AC35" s="111" t="s">
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="T35" s="103"/>
+      <c r="U35" s="103"/>
+      <c r="V35" s="103"/>
+      <c r="W35" s="103"/>
+      <c r="X35" s="103"/>
+      <c r="Y35" s="103"/>
+      <c r="Z35" s="103"/>
+      <c r="AA35" s="103"/>
+      <c r="AB35" s="108"/>
+      <c r="AC35" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="AD35" s="112"/>
-      <c r="AE35" s="117"/>
+      <c r="AD35" s="103"/>
+      <c r="AE35" s="108"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="B36" s="111"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="114">
+      <c r="B36" s="102"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="105">
         <v>45047</v>
       </c>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="111" t="s">
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="K36" s="112"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="112"/>
-      <c r="S36" s="112"/>
-      <c r="T36" s="112"/>
-      <c r="U36" s="112"/>
-      <c r="V36" s="112"/>
-      <c r="W36" s="112"/>
-      <c r="X36" s="112"/>
-      <c r="Y36" s="112"/>
-      <c r="Z36" s="112"/>
-      <c r="AA36" s="112"/>
-      <c r="AB36" s="117"/>
-      <c r="AC36" s="111" t="s">
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="103"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="103"/>
+      <c r="V36" s="103"/>
+      <c r="W36" s="103"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="103"/>
+      <c r="AA36" s="103"/>
+      <c r="AB36" s="108"/>
+      <c r="AC36" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="AD36" s="112"/>
-      <c r="AE36" s="117"/>
+      <c r="AD36" s="103"/>
+      <c r="AE36" s="108"/>
     </row>
     <row r="37" spans="1:32">
-      <c r="B37" s="111"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="114">
+      <c r="B37" s="102"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="105">
         <v>45047</v>
       </c>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="111" t="s">
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="112"/>
-      <c r="S37" s="112"/>
-      <c r="T37" s="112"/>
-      <c r="U37" s="112"/>
-      <c r="V37" s="112"/>
-      <c r="W37" s="112"/>
-      <c r="X37" s="112"/>
-      <c r="Y37" s="112"/>
-      <c r="Z37" s="112"/>
-      <c r="AA37" s="112"/>
-      <c r="AB37" s="117"/>
-      <c r="AC37" s="111" t="s">
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="103"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="103"/>
+      <c r="T37" s="103"/>
+      <c r="U37" s="103"/>
+      <c r="V37" s="103"/>
+      <c r="W37" s="103"/>
+      <c r="X37" s="103"/>
+      <c r="Y37" s="103"/>
+      <c r="Z37" s="103"/>
+      <c r="AA37" s="103"/>
+      <c r="AB37" s="108"/>
+      <c r="AC37" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="AD37" s="112"/>
-      <c r="AE37" s="117"/>
+      <c r="AD37" s="103"/>
+      <c r="AE37" s="108"/>
     </row>
     <row r="38" spans="1:32">
-      <c r="B38" s="111"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="112"/>
-      <c r="S38" s="112"/>
-      <c r="T38" s="112"/>
-      <c r="U38" s="112"/>
-      <c r="V38" s="112"/>
-      <c r="W38" s="112"/>
-      <c r="X38" s="112"/>
-      <c r="Y38" s="112"/>
-      <c r="Z38" s="112"/>
-      <c r="AA38" s="112"/>
-      <c r="AB38" s="117"/>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="112"/>
-      <c r="AE38" s="117"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="103"/>
+      <c r="O38" s="103"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="103"/>
+      <c r="T38" s="103"/>
+      <c r="U38" s="103"/>
+      <c r="V38" s="103"/>
+      <c r="W38" s="103"/>
+      <c r="X38" s="103"/>
+      <c r="Y38" s="103"/>
+      <c r="Z38" s="103"/>
+      <c r="AA38" s="103"/>
+      <c r="AB38" s="108"/>
+      <c r="AC38" s="102"/>
+      <c r="AD38" s="103"/>
+      <c r="AE38" s="108"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="B39" s="111"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="112"/>
-      <c r="L39" s="112"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="112"/>
-      <c r="S39" s="112"/>
-      <c r="T39" s="112"/>
-      <c r="U39" s="112"/>
-      <c r="V39" s="112"/>
-      <c r="W39" s="112"/>
-      <c r="X39" s="112"/>
-      <c r="Y39" s="112"/>
-      <c r="Z39" s="112"/>
-      <c r="AA39" s="112"/>
-      <c r="AB39" s="117"/>
-      <c r="AC39" s="111"/>
-      <c r="AD39" s="112"/>
-      <c r="AE39" s="117"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="103"/>
+      <c r="T39" s="103"/>
+      <c r="U39" s="103"/>
+      <c r="V39" s="103"/>
+      <c r="W39" s="103"/>
+      <c r="X39" s="103"/>
+      <c r="Y39" s="103"/>
+      <c r="Z39" s="103"/>
+      <c r="AA39" s="103"/>
+      <c r="AB39" s="108"/>
+      <c r="AC39" s="102"/>
+      <c r="AD39" s="103"/>
+      <c r="AE39" s="108"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="B40" s="111"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="112"/>
-      <c r="S40" s="112"/>
-      <c r="T40" s="112"/>
-      <c r="U40" s="112"/>
-      <c r="V40" s="112"/>
-      <c r="W40" s="112"/>
-      <c r="X40" s="112"/>
-      <c r="Y40" s="112"/>
-      <c r="Z40" s="112"/>
-      <c r="AA40" s="112"/>
-      <c r="AB40" s="117"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="112"/>
-      <c r="AE40" s="117"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
+      <c r="T40" s="103"/>
+      <c r="U40" s="103"/>
+      <c r="V40" s="103"/>
+      <c r="W40" s="103"/>
+      <c r="X40" s="103"/>
+      <c r="Y40" s="103"/>
+      <c r="Z40" s="103"/>
+      <c r="AA40" s="103"/>
+      <c r="AB40" s="108"/>
+      <c r="AC40" s="102"/>
+      <c r="AD40" s="103"/>
+      <c r="AE40" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="AC9:AE12"/>
+    <mergeCell ref="Z9:AB12"/>
+    <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="W6:AE6"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
     <mergeCell ref="J24:AB24"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="U3:V3"/>
@@ -30010,52 +29825,30 @@
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="W6:AE6"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC9:AE12"/>
-    <mergeCell ref="Z9:AB12"/>
-    <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30066,8 +29859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F52001-198F-49C8-9B33-4E8E909FB230}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="F5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -30076,17 +29869,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -30095,13 +29888,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -30114,13 +29907,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -30133,13 +29926,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -30154,13 +29947,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -30171,13 +29964,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -30188,28 +29981,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -30574,17 +30367,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -30768,17 +30561,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -31056,31 +30849,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -31096,6 +30864,31 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31117,17 +30910,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -31136,13 +30929,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -31155,13 +30948,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -31174,13 +30967,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -31195,13 +30988,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -31212,13 +31005,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -31229,28 +31022,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -31616,17 +31409,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -31790,17 +31583,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -32074,31 +31867,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -32114,6 +31882,31 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32125,7 +31918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C029A2BA-8792-41AE-B096-F71FDB23FBDB}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="73" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
@@ -32137,17 +31930,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -32156,13 +31949,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -32175,13 +31968,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -32194,13 +31987,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -32215,13 +32008,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -32232,13 +32025,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -32249,28 +32042,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -32636,17 +32429,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -32810,17 +32603,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -33094,31 +32887,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -33134,6 +32902,31 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33155,17 +32948,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -33174,13 +32967,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -33193,13 +32986,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -33212,13 +33005,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -33233,13 +33026,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -33250,13 +33043,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -33278,17 +33071,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -33654,17 +33447,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -33828,17 +33621,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -34110,31 +33903,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -34149,6 +33917,31 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34170,17 +33963,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -34189,13 +33982,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -34208,13 +34001,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -34227,13 +34020,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -34248,13 +34041,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -34265,13 +34058,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -34282,28 +34075,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -34669,17 +34462,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -34843,17 +34636,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -35125,31 +34918,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -35165,6 +34933,31 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35186,17 +34979,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -35205,13 +34998,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -35224,13 +35017,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -35243,13 +35036,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -35264,13 +35057,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -35283,13 +35076,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -35313,17 +35106,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -35689,17 +35482,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -35853,17 +35646,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -36135,31 +35928,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -36174,6 +35942,31 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36195,17 +35988,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -36214,13 +36007,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -36233,13 +36026,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -36252,13 +36045,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -36273,13 +36066,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -36292,13 +36085,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -36322,17 +36115,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -36698,17 +36491,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -36922,17 +36715,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -37204,31 +36997,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -37243,6 +37011,31 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37898,164 +37691,164 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="158" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="158"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="177" t="s">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="159" t="s">
         <v>327</v>
       </c>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="180" t="s">
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="162" t="s">
         <v>328</v>
       </c>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="177" t="s">
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="159" t="s">
         <v>329</v>
       </c>
-      <c r="AG2" s="179"/>
+      <c r="AG2" s="161"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="158" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="165" t="s">
         <v>330</v>
       </c>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="164" t="s">
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="171" t="s">
         <v>331</v>
       </c>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="170" t="s">
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="177" t="s">
         <v>332</v>
       </c>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="158" t="s">
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="AG3" s="160"/>
+      <c r="AG3" s="167"/>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="173"/>
-      <c r="AA4" s="174"/>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="174"/>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="163"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="175"/>
+      <c r="S4" s="175"/>
+      <c r="T4" s="175"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="175"/>
+      <c r="W4" s="175"/>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="181"/>
+      <c r="AB4" s="181"/>
+      <c r="AC4" s="181"/>
+      <c r="AD4" s="181"/>
+      <c r="AE4" s="182"/>
+      <c r="AF4" s="168"/>
+      <c r="AG4" s="170"/>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="88"/>
@@ -39458,17 +39251,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39481,173 +39274,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC672772-03AD-4FD7-8FEC-E41D3AB37997}">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+    <sheetView topLeftCell="A3" zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="158" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="158"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="177" t="s">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="159" t="s">
         <v>333</v>
       </c>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="177" t="s">
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="159" t="s">
         <v>327</v>
       </c>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="180" t="s">
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="162" t="s">
         <v>328</v>
       </c>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="177" t="s">
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="159" t="s">
         <v>329</v>
       </c>
-      <c r="AG2" s="179"/>
+      <c r="AG2" s="161"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="158" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="165" t="s">
         <v>330</v>
       </c>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="164" t="s">
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="171" t="s">
         <v>334</v>
       </c>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="170" t="s">
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="177" t="s">
         <v>332</v>
       </c>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="158" t="s">
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="165" t="s">
         <v>335</v>
       </c>
-      <c r="AG3" s="160"/>
+      <c r="AG3" s="167"/>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="173"/>
-      <c r="AA4" s="174"/>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="174"/>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="163"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="175"/>
+      <c r="S4" s="175"/>
+      <c r="T4" s="175"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="175"/>
+      <c r="W4" s="175"/>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="181"/>
+      <c r="AB4" s="181"/>
+      <c r="AC4" s="181"/>
+      <c r="AD4" s="181"/>
+      <c r="AE4" s="182"/>
+      <c r="AF4" s="168"/>
+      <c r="AG4" s="170"/>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="88"/>
@@ -41051,17 +40844,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41081,166 +40874,166 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="158" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="158"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="177" t="s">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="159" t="s">
         <v>333</v>
       </c>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="177" t="s">
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="159" t="s">
         <v>327</v>
       </c>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="180" t="s">
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="162" t="s">
         <v>328</v>
       </c>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="177" t="s">
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="159" t="s">
         <v>329</v>
       </c>
-      <c r="AG2" s="179"/>
+      <c r="AG2" s="161"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="158" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="165" t="s">
         <v>330</v>
       </c>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="164" t="s">
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="171" t="s">
         <v>336</v>
       </c>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="170" t="s">
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="177" t="s">
         <v>332</v>
       </c>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="158" t="s">
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="165" t="s">
         <v>337</v>
       </c>
-      <c r="AG3" s="160"/>
+      <c r="AG3" s="167"/>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="173"/>
-      <c r="AA4" s="174"/>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="174"/>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="163"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="175"/>
+      <c r="S4" s="175"/>
+      <c r="T4" s="175"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="175"/>
+      <c r="W4" s="175"/>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="181"/>
+      <c r="AB4" s="181"/>
+      <c r="AC4" s="181"/>
+      <c r="AD4" s="181"/>
+      <c r="AE4" s="182"/>
+      <c r="AF4" s="168"/>
+      <c r="AG4" s="170"/>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="88"/>
@@ -42644,17 +42437,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42677,17 +42470,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -42696,13 +42489,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -42715,13 +42508,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -42734,13 +42527,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -42755,13 +42548,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -42772,13 +42565,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -42789,28 +42582,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -43176,17 +42969,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -43287,11 +43080,11 @@
       <c r="F47" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="192" t="s">
+      <c r="G47" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="193"/>
-      <c r="I47" s="194"/>
+      <c r="H47" s="187"/>
+      <c r="I47" s="188"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="26" t="s">
@@ -43308,11 +43101,11 @@
       <c r="F48" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="192" t="s">
+      <c r="G48" s="186" t="s">
         <v>85</v>
       </c>
-      <c r="H48" s="193"/>
-      <c r="I48" s="194"/>
+      <c r="H48" s="187"/>
+      <c r="I48" s="188"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="26"/>
@@ -43370,17 +43163,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -43649,31 +43442,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -43689,6 +43457,31 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43700,7 +43493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D3AFEF-A7BF-4720-B848-560963C16316}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="94" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="94" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
@@ -43710,17 +43503,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -43729,13 +43522,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -43748,13 +43541,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -43767,13 +43560,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -43788,13 +43581,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -43807,13 +43600,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -43826,28 +43619,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -44214,17 +44007,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -44484,12 +44277,12 @@
       </c>
       <c r="B55" s="196"/>
       <c r="C55" s="196"/>
-      <c r="D55" s="190"/>
-      <c r="E55" s="190"/>
-      <c r="F55" s="190"/>
-      <c r="G55" s="190"/>
-      <c r="H55" s="190"/>
-      <c r="I55" s="191"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="184"/>
+      <c r="F55" s="184"/>
+      <c r="G55" s="184"/>
+      <c r="H55" s="184"/>
+      <c r="I55" s="185"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="16"/>
@@ -44769,34 +44562,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -44812,6 +44577,34 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44833,17 +44626,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -44852,13 +44645,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -44871,13 +44664,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -44890,13 +44683,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -44911,13 +44704,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -44928,13 +44721,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -44945,28 +44738,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -45332,17 +45125,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -45496,17 +45289,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -45778,31 +45571,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -45818,6 +45586,31 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45839,17 +45632,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -45858,13 +45651,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -45877,13 +45670,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -45896,13 +45689,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -45917,13 +45710,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -45934,13 +45727,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -45951,28 +45744,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -46337,17 +46130,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -46501,17 +46294,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -46783,31 +46576,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -46823,6 +46591,31 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46831,13 +46624,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47013,20 +46805,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567701D2-B8CD-4541-95EE-63CDD03DBC05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D6D0ED-279E-4F81-A4AC-DC90877256C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -47050,9 +46841,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D6D0ED-279E-4F81-A4AC-DC90877256C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567701D2-B8CD-4541-95EE-63CDD03DBC05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面設計書.xlsx
+++ b/02_画面設計書・モックアップ/画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\abcc_system_grpA\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8EEAC6-85E3-49D4-81AD-9C297ADD54E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A567A2-05CE-4E1A-B049-70AAAAA9A853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="11" xr2:uid="{F45AE85F-3EC2-42A9-8800-A50263340ACB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="17" xr2:uid="{F45AE85F-3EC2-42A9-8800-A50263340ACB}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="検索結果画面" sheetId="7" r:id="rId14"/>
     <sheet name="プロフィール画面" sheetId="8" r:id="rId15"/>
     <sheet name="プロフィール修正画面" sheetId="9" r:id="rId16"/>
+    <sheet name="パスワード変更画面" sheetId="19" r:id="rId17"/>
+    <sheet name="パスワード確認画面" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -105,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="350">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -2545,6 +2547,81 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>変更パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２０桁</t>
+    <rPh sb="2" eb="3">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更するパスワードの入力を行う</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更パスワード（確認）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更するパスワードの再入力を行う</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>サイニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー文</t>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー文を表示する</t>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｋ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3225,6 +3302,33 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3249,8 +3353,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3270,13 +3407,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3315,60 +3446,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3392,27 +3469,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3468,23 +3524,26 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3503,6 +3562,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -13085,6 +13162,1302 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>784225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>917575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9520756-B9B9-4444-A501-6788353C673B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A6CF1C69-4022-40AA-AEEC-A7B1A0CF92DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784225" y="2584450"/>
+          <a:ext cx="5962650" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169955</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>203292</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6E9507-F6E6-4C35-8AEF-829F7E9E8432}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8D25F3BE-D260-5EE4-1582-10F92A110C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5027705" y="5003892"/>
+          <a:ext cx="901700" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>817034</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>10399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>70540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448B61CD-1EFC-4905-AFB6-2D5887C35BA4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{17BE2145-7BCB-4C16-9549-DA5D54DAC79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3731684" y="4810999"/>
+          <a:ext cx="2821515" cy="288741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>646918</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>413164</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53929</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC85DC3D-A2FE-4F3B-BBAE-0721E9512917}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CBE2FB52-475A-4B47-A583-FA65953C054F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6476218" y="4159664"/>
+          <a:ext cx="737796" cy="237665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C10203-2F25-47FC-A793-082963846A35}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A94ADE38-0030-4AA4-B046-643567AAD99C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781425" y="4362450"/>
+          <a:ext cx="2790825" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536299</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>262420</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>54391</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00431AA3-B969-4CBF-9051-27CB8C079163}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{33DC545D-EE11-4CAB-B347-587DCDDE313A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4422499" y="5303493"/>
+          <a:ext cx="697671" cy="237298"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347891</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0907E2-6DC6-4A58-A6BF-DF45536A489A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FCCDA95D-1D68-450C-8830-1ABFE52B2658}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7148741" y="3835354"/>
+          <a:ext cx="901700" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>892175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>618296</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148398</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB112CB6-BB2D-405C-B69C-0FEC17AF0EF3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A6CF1C69-4022-40AA-AEEC-A7B1A0CF92DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4778375" y="3797300"/>
+          <a:ext cx="697671" cy="237298"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>112184</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>901699</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69851</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F9AA2F-300E-4087-888C-B95234277AB0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{17BE2145-7BCB-4C16-9549-DA5D54DAC79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3026834" y="4026775"/>
+          <a:ext cx="1761065" cy="157876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519205</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101692</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4152904D-F0C4-4B1A-B5CC-55341BD30D2D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8D25F3BE-D260-5EE4-1582-10F92A110C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5376955" y="3530692"/>
+          <a:ext cx="901700" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>416984</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>188199</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619F7D09-4BC3-4641-A259-05FE1A907636}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8D25F3BE-D260-5EE4-1582-10F92A110C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7217834" y="4302999"/>
+          <a:ext cx="901700" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>771249</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>497370</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19466</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B649B761-0A66-4CB8-A4E9-1359812574AA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{33DC545D-EE11-4CAB-B347-587DCDDE313A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6600549" y="4582768"/>
+          <a:ext cx="697671" cy="237298"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>193675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D4F6AF-6A64-4E25-BD4D-35AA0D9ED679}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A94ADE38-0030-4AA4-B046-643567AAD99C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3152775" y="5356225"/>
+          <a:ext cx="1222375" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -28384,21 +29757,21 @@
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
-      <c r="U3" s="109" t="s">
+      <c r="U3" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="110"/>
-      <c r="W3" s="111">
+      <c r="V3" s="120"/>
+      <c r="W3" s="131">
         <v>45040</v>
       </c>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
-      <c r="AB3" s="112"/>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="113"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="133"/>
       <c r="AF3" s="35"/>
     </row>
     <row r="4" spans="1:32" ht="19">
@@ -28457,18 +29830,18 @@
       <c r="S5" s="37"/>
       <c r="T5" s="37"/>
       <c r="U5" s="37"/>
-      <c r="V5" s="117" t="s">
+      <c r="V5" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="117"/>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="117"/>
-      <c r="AE5" s="117"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="121"/>
       <c r="AF5" s="38"/>
     </row>
     <row r="6" spans="1:32">
@@ -28494,17 +29867,17 @@
       <c r="T6" s="35"/>
       <c r="U6" s="35"/>
       <c r="V6" s="35"/>
-      <c r="W6" s="117" t="s">
+      <c r="W6" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="117"/>
-      <c r="AA6" s="117"/>
-      <c r="AB6" s="117"/>
-      <c r="AC6" s="117"/>
-      <c r="AD6" s="117"/>
-      <c r="AE6" s="117"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
       <c r="AF6" s="38"/>
     </row>
     <row r="7" spans="1:32">
@@ -28515,20 +29888,20 @@
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
-      <c r="F7" s="114" t="s">
+      <c r="F7" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="116"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="136"/>
       <c r="R7" s="35"/>
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
@@ -28547,80 +29920,80 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="35"/>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="124" t="s">
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="126"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="144"/>
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
-      <c r="W8" s="130" t="s">
+      <c r="W8" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="130"/>
-      <c r="Y8" s="130"/>
-      <c r="Z8" s="130" t="s">
+      <c r="X8" s="148"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="130"/>
-      <c r="AB8" s="130"/>
-      <c r="AC8" s="130" t="s">
+      <c r="AA8" s="148"/>
+      <c r="AB8" s="148"/>
+      <c r="AC8" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="130"/>
-      <c r="AE8" s="130"/>
+      <c r="AD8" s="148"/>
+      <c r="AE8" s="148"/>
       <c r="AF8" s="35"/>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="35"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="129"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="147"/>
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
-      <c r="W9" s="141"/>
-      <c r="X9" s="142"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="142"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="141"/>
-      <c r="AD9" s="142"/>
-      <c r="AE9" s="143"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="104"/>
       <c r="AF9" s="35"/>
     </row>
     <row r="10" spans="1:32">
@@ -28646,15 +30019,15 @@
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="145"/>
-      <c r="Y10" s="146"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="145"/>
-      <c r="AB10" s="146"/>
-      <c r="AC10" s="144"/>
-      <c r="AD10" s="145"/>
-      <c r="AE10" s="146"/>
+      <c r="W10" s="105"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="106"/>
+      <c r="AE10" s="107"/>
       <c r="AF10" s="35"/>
     </row>
     <row r="11" spans="1:32">
@@ -28680,15 +30053,15 @@
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
       <c r="V11" s="35"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="145"/>
-      <c r="Y11" s="146"/>
-      <c r="Z11" s="144"/>
-      <c r="AA11" s="145"/>
-      <c r="AB11" s="146"/>
-      <c r="AC11" s="144"/>
-      <c r="AD11" s="145"/>
-      <c r="AE11" s="146"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="107"/>
       <c r="AF11" s="35"/>
     </row>
     <row r="12" spans="1:32">
@@ -28714,15 +30087,15 @@
       <c r="T12" s="41"/>
       <c r="U12" s="41"/>
       <c r="V12" s="41"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="149"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="149"/>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="149"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="110"/>
+      <c r="Z12" s="108"/>
+      <c r="AA12" s="109"/>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="109"/>
+      <c r="AE12" s="110"/>
       <c r="AF12" s="35"/>
     </row>
     <row r="13" spans="1:32">
@@ -28829,106 +30202,106 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="35"/>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="137" t="s">
         <v>338</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="118"/>
-      <c r="AE16" s="118"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="137"/>
       <c r="AF16" s="35"/>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="35"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="118"/>
-      <c r="AB17" s="118"/>
-      <c r="AC17" s="118"/>
-      <c r="AD17" s="118"/>
-      <c r="AE17" s="118"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="137"/>
       <c r="AF17" s="35"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="35"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="118"/>
-      <c r="AD18" s="118"/>
-      <c r="AE18" s="118"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="137"/>
       <c r="AF18" s="35"/>
     </row>
     <row r="19" spans="1:32">
@@ -29071,19 +30444,19 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="42"/>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="118" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="119"/>
       <c r="D23" s="119"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="109" t="s">
+      <c r="E23" s="149"/>
+      <c r="F23" s="118" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="119"/>
       <c r="H23" s="119"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="109" t="s">
+      <c r="I23" s="120"/>
+      <c r="J23" s="118" t="s">
         <v>13</v>
       </c>
       <c r="K23" s="119"/>
@@ -29103,666 +30476,736 @@
       <c r="Y23" s="119"/>
       <c r="Z23" s="119"/>
       <c r="AA23" s="119"/>
-      <c r="AB23" s="110"/>
-      <c r="AC23" s="109" t="s">
+      <c r="AB23" s="120"/>
+      <c r="AC23" s="118" t="s">
         <v>9</v>
       </c>
       <c r="AD23" s="119"/>
-      <c r="AE23" s="110"/>
+      <c r="AE23" s="120"/>
       <c r="AF23" s="42"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="35"/>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105">
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114">
         <v>45040</v>
       </c>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="102" t="s">
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="103"/>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="108"/>
-      <c r="AC24" s="102" t="s">
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="112"/>
+      <c r="Y24" s="112"/>
+      <c r="Z24" s="112"/>
+      <c r="AA24" s="112"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="AD24" s="103"/>
-      <c r="AE24" s="108"/>
+      <c r="AD24" s="112"/>
+      <c r="AE24" s="117"/>
       <c r="AF24" s="35"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="35"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105">
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114">
         <v>45041</v>
       </c>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="102" t="s">
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="103"/>
-      <c r="Z25" s="103"/>
-      <c r="AA25" s="103"/>
-      <c r="AB25" s="108"/>
-      <c r="AC25" s="102" t="s">
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="112"/>
+      <c r="Y25" s="112"/>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="112"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="AD25" s="103"/>
-      <c r="AE25" s="108"/>
+      <c r="AD25" s="112"/>
+      <c r="AE25" s="117"/>
       <c r="AF25" s="35"/>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="35"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105">
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114">
         <v>45041</v>
       </c>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="102" t="s">
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="103"/>
-      <c r="X26" s="103"/>
-      <c r="Y26" s="103"/>
-      <c r="Z26" s="103"/>
-      <c r="AA26" s="103"/>
-      <c r="AB26" s="108"/>
-      <c r="AC26" s="102" t="s">
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="117"/>
+      <c r="AC26" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="AD26" s="103"/>
-      <c r="AE26" s="108"/>
+      <c r="AD26" s="112"/>
+      <c r="AE26" s="117"/>
       <c r="AF26" s="35"/>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="35"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="105">
+      <c r="B27" s="111"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="114">
         <v>45041</v>
       </c>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="102" t="s">
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="103"/>
-      <c r="AA27" s="103"/>
-      <c r="AB27" s="108"/>
-      <c r="AC27" s="132" t="s">
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="112"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="112"/>
+      <c r="AA27" s="112"/>
+      <c r="AB27" s="117"/>
+      <c r="AC27" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="AD27" s="133"/>
-      <c r="AE27" s="134"/>
+      <c r="AD27" s="123"/>
+      <c r="AE27" s="124"/>
       <c r="AF27" s="35"/>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="35"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="105">
+      <c r="B28" s="111"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="114">
         <v>45041</v>
       </c>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="102" t="s">
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="103"/>
-      <c r="AA28" s="103"/>
-      <c r="AB28" s="103"/>
-      <c r="AC28" s="135" t="s">
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="112"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="112"/>
+      <c r="Y28" s="112"/>
+      <c r="Z28" s="112"/>
+      <c r="AA28" s="112"/>
+      <c r="AB28" s="112"/>
+      <c r="AC28" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AD28" s="136"/>
-      <c r="AE28" s="137"/>
+      <c r="AD28" s="126"/>
+      <c r="AE28" s="127"/>
       <c r="AF28" s="35"/>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="35"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="105">
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="114">
         <v>45042</v>
       </c>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="102" t="s">
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="103"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="103"/>
-      <c r="AA29" s="103"/>
-      <c r="AB29" s="108"/>
-      <c r="AC29" s="138" t="s">
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="112"/>
+      <c r="W29" s="112"/>
+      <c r="X29" s="112"/>
+      <c r="Y29" s="112"/>
+      <c r="Z29" s="112"/>
+      <c r="AA29" s="112"/>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="AD29" s="139"/>
-      <c r="AE29" s="140"/>
+      <c r="AD29" s="129"/>
+      <c r="AE29" s="130"/>
       <c r="AF29" s="35"/>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="35"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="105">
+      <c r="B30" s="111"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="114">
         <v>45042</v>
       </c>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="102" t="s">
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="103"/>
-      <c r="AB30" s="108"/>
-      <c r="AC30" s="102" t="s">
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="112"/>
+      <c r="V30" s="112"/>
+      <c r="W30" s="112"/>
+      <c r="X30" s="112"/>
+      <c r="Y30" s="112"/>
+      <c r="Z30" s="112"/>
+      <c r="AA30" s="112"/>
+      <c r="AB30" s="117"/>
+      <c r="AC30" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="AD30" s="103"/>
-      <c r="AE30" s="108"/>
+      <c r="AD30" s="112"/>
+      <c r="AE30" s="117"/>
       <c r="AF30" s="35"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="35"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="105">
+      <c r="B31" s="111"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="114">
         <v>45042</v>
       </c>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="102" t="s">
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="103"/>
-      <c r="Z31" s="103"/>
-      <c r="AA31" s="103"/>
-      <c r="AB31" s="108"/>
-      <c r="AC31" s="102" t="s">
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="112"/>
+      <c r="X31" s="112"/>
+      <c r="Y31" s="112"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="112"/>
+      <c r="AB31" s="117"/>
+      <c r="AC31" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="AD31" s="103"/>
-      <c r="AE31" s="108"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="117"/>
       <c r="AF31" s="35"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="35"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="105">
+      <c r="B32" s="111"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="114">
         <v>45042</v>
       </c>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="102" t="s">
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="103"/>
-      <c r="Y32" s="103"/>
-      <c r="Z32" s="103"/>
-      <c r="AA32" s="103"/>
-      <c r="AB32" s="108"/>
-      <c r="AC32" s="102" t="s">
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="112"/>
+      <c r="W32" s="112"/>
+      <c r="X32" s="112"/>
+      <c r="Y32" s="112"/>
+      <c r="Z32" s="112"/>
+      <c r="AA32" s="112"/>
+      <c r="AB32" s="117"/>
+      <c r="AC32" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="108"/>
+      <c r="AD32" s="112"/>
+      <c r="AE32" s="117"/>
       <c r="AF32" s="35"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="35"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="105" t="s">
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="102" t="s">
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="108"/>
-      <c r="AC33" s="102" t="s">
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="112"/>
+      <c r="S33" s="112"/>
+      <c r="T33" s="112"/>
+      <c r="U33" s="112"/>
+      <c r="V33" s="112"/>
+      <c r="W33" s="112"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="112"/>
+      <c r="Z33" s="112"/>
+      <c r="AA33" s="112"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="108"/>
+      <c r="AD33" s="112"/>
+      <c r="AE33" s="117"/>
       <c r="AF33" s="35"/>
     </row>
     <row r="34" spans="1:32" ht="18" customHeight="1">
-      <c r="B34" s="102"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="105" t="s">
+      <c r="B34" s="111"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="102" t="s">
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="103"/>
-      <c r="AA34" s="103"/>
-      <c r="AB34" s="108"/>
-      <c r="AC34" s="102" t="s">
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="112"/>
+      <c r="S34" s="112"/>
+      <c r="T34" s="112"/>
+      <c r="U34" s="112"/>
+      <c r="V34" s="112"/>
+      <c r="W34" s="112"/>
+      <c r="X34" s="112"/>
+      <c r="Y34" s="112"/>
+      <c r="Z34" s="112"/>
+      <c r="AA34" s="112"/>
+      <c r="AB34" s="117"/>
+      <c r="AC34" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AD34" s="103"/>
-      <c r="AE34" s="108"/>
+      <c r="AD34" s="112"/>
+      <c r="AE34" s="117"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="B35" s="102"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="105">
+      <c r="B35" s="111"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="114">
         <v>45043</v>
       </c>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="102" t="s">
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="103"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="103"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="103"/>
-      <c r="AA35" s="103"/>
-      <c r="AB35" s="108"/>
-      <c r="AC35" s="102" t="s">
+      <c r="K35" s="112"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="112"/>
+      <c r="R35" s="112"/>
+      <c r="S35" s="112"/>
+      <c r="T35" s="112"/>
+      <c r="U35" s="112"/>
+      <c r="V35" s="112"/>
+      <c r="W35" s="112"/>
+      <c r="X35" s="112"/>
+      <c r="Y35" s="112"/>
+      <c r="Z35" s="112"/>
+      <c r="AA35" s="112"/>
+      <c r="AB35" s="117"/>
+      <c r="AC35" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="AD35" s="103"/>
-      <c r="AE35" s="108"/>
+      <c r="AD35" s="112"/>
+      <c r="AE35" s="117"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="B36" s="102"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="105">
+      <c r="B36" s="111"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="114">
         <v>45047</v>
       </c>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="102" t="s">
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="103"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="103"/>
-      <c r="AA36" s="103"/>
-      <c r="AB36" s="108"/>
-      <c r="AC36" s="102" t="s">
+      <c r="K36" s="112"/>
+      <c r="L36" s="112"/>
+      <c r="M36" s="112"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="112"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="112"/>
+      <c r="R36" s="112"/>
+      <c r="S36" s="112"/>
+      <c r="T36" s="112"/>
+      <c r="U36" s="112"/>
+      <c r="V36" s="112"/>
+      <c r="W36" s="112"/>
+      <c r="X36" s="112"/>
+      <c r="Y36" s="112"/>
+      <c r="Z36" s="112"/>
+      <c r="AA36" s="112"/>
+      <c r="AB36" s="117"/>
+      <c r="AC36" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="AD36" s="103"/>
-      <c r="AE36" s="108"/>
+      <c r="AD36" s="112"/>
+      <c r="AE36" s="117"/>
     </row>
     <row r="37" spans="1:32">
-      <c r="B37" s="102"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="105">
+      <c r="B37" s="111"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="114">
         <v>45047</v>
       </c>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="102" t="s">
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="103"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="103"/>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="103"/>
-      <c r="R37" s="103"/>
-      <c r="S37" s="103"/>
-      <c r="T37" s="103"/>
-      <c r="U37" s="103"/>
-      <c r="V37" s="103"/>
-      <c r="W37" s="103"/>
-      <c r="X37" s="103"/>
-      <c r="Y37" s="103"/>
-      <c r="Z37" s="103"/>
-      <c r="AA37" s="103"/>
-      <c r="AB37" s="108"/>
-      <c r="AC37" s="102" t="s">
+      <c r="K37" s="112"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="112"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="112"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="112"/>
+      <c r="R37" s="112"/>
+      <c r="S37" s="112"/>
+      <c r="T37" s="112"/>
+      <c r="U37" s="112"/>
+      <c r="V37" s="112"/>
+      <c r="W37" s="112"/>
+      <c r="X37" s="112"/>
+      <c r="Y37" s="112"/>
+      <c r="Z37" s="112"/>
+      <c r="AA37" s="112"/>
+      <c r="AB37" s="117"/>
+      <c r="AC37" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="AD37" s="103"/>
-      <c r="AE37" s="108"/>
+      <c r="AD37" s="112"/>
+      <c r="AE37" s="117"/>
     </row>
     <row r="38" spans="1:32">
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="103"/>
-      <c r="N38" s="103"/>
-      <c r="O38" s="103"/>
-      <c r="P38" s="103"/>
-      <c r="Q38" s="103"/>
-      <c r="R38" s="103"/>
-      <c r="S38" s="103"/>
-      <c r="T38" s="103"/>
-      <c r="U38" s="103"/>
-      <c r="V38" s="103"/>
-      <c r="W38" s="103"/>
-      <c r="X38" s="103"/>
-      <c r="Y38" s="103"/>
-      <c r="Z38" s="103"/>
-      <c r="AA38" s="103"/>
-      <c r="AB38" s="108"/>
-      <c r="AC38" s="102"/>
-      <c r="AD38" s="103"/>
-      <c r="AE38" s="108"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="112"/>
+      <c r="L38" s="112"/>
+      <c r="M38" s="112"/>
+      <c r="N38" s="112"/>
+      <c r="O38" s="112"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="112"/>
+      <c r="R38" s="112"/>
+      <c r="S38" s="112"/>
+      <c r="T38" s="112"/>
+      <c r="U38" s="112"/>
+      <c r="V38" s="112"/>
+      <c r="W38" s="112"/>
+      <c r="X38" s="112"/>
+      <c r="Y38" s="112"/>
+      <c r="Z38" s="112"/>
+      <c r="AA38" s="112"/>
+      <c r="AB38" s="117"/>
+      <c r="AC38" s="111"/>
+      <c r="AD38" s="112"/>
+      <c r="AE38" s="117"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="B39" s="102"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="103"/>
-      <c r="N39" s="103"/>
-      <c r="O39" s="103"/>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="103"/>
-      <c r="R39" s="103"/>
-      <c r="S39" s="103"/>
-      <c r="T39" s="103"/>
-      <c r="U39" s="103"/>
-      <c r="V39" s="103"/>
-      <c r="W39" s="103"/>
-      <c r="X39" s="103"/>
-      <c r="Y39" s="103"/>
-      <c r="Z39" s="103"/>
-      <c r="AA39" s="103"/>
-      <c r="AB39" s="108"/>
-      <c r="AC39" s="102"/>
-      <c r="AD39" s="103"/>
-      <c r="AE39" s="108"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="112"/>
+      <c r="R39" s="112"/>
+      <c r="S39" s="112"/>
+      <c r="T39" s="112"/>
+      <c r="U39" s="112"/>
+      <c r="V39" s="112"/>
+      <c r="W39" s="112"/>
+      <c r="X39" s="112"/>
+      <c r="Y39" s="112"/>
+      <c r="Z39" s="112"/>
+      <c r="AA39" s="112"/>
+      <c r="AB39" s="117"/>
+      <c r="AC39" s="111"/>
+      <c r="AD39" s="112"/>
+      <c r="AE39" s="117"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="B40" s="102"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="103"/>
-      <c r="N40" s="103"/>
-      <c r="O40" s="103"/>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="103"/>
-      <c r="R40" s="103"/>
-      <c r="S40" s="103"/>
-      <c r="T40" s="103"/>
-      <c r="U40" s="103"/>
-      <c r="V40" s="103"/>
-      <c r="W40" s="103"/>
-      <c r="X40" s="103"/>
-      <c r="Y40" s="103"/>
-      <c r="Z40" s="103"/>
-      <c r="AA40" s="103"/>
-      <c r="AB40" s="108"/>
-      <c r="AC40" s="102"/>
-      <c r="AD40" s="103"/>
-      <c r="AE40" s="108"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="112"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="112"/>
+      <c r="S40" s="112"/>
+      <c r="T40" s="112"/>
+      <c r="U40" s="112"/>
+      <c r="V40" s="112"/>
+      <c r="W40" s="112"/>
+      <c r="X40" s="112"/>
+      <c r="Y40" s="112"/>
+      <c r="Z40" s="112"/>
+      <c r="AA40" s="112"/>
+      <c r="AB40" s="117"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="112"/>
+      <c r="AE40" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:AE3"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="V5:AE5"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="W6:AE6"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
@@ -29779,76 +31222,6 @@
     <mergeCell ref="AC32:AE32"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="W6:AE6"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:AE3"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="V5:AE5"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:Q9"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29869,17 +31242,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -29888,13 +31261,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="186" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="188"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -29907,13 +31280,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -29926,13 +31299,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -29947,13 +31320,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="186" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -29964,13 +31337,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="186" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -29981,28 +31354,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="186" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="188"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -30367,17 +31740,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="185"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="191"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -30561,17 +31934,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="183" t="s">
+      <c r="A54" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="184"/>
-      <c r="C54" s="184"/>
-      <c r="D54" s="184"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="185"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="190"/>
+      <c r="H54" s="190"/>
+      <c r="I54" s="191"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -30849,6 +32222,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -30864,31 +32262,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30910,17 +32283,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -30929,13 +32302,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="188"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -30948,13 +32321,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -30967,13 +32340,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="186" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -30988,13 +32361,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="186" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -31005,13 +32378,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="186" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -31022,28 +32395,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="186" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="188"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -31409,17 +32782,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="185"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="191"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -31583,17 +32956,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="183" t="s">
+      <c r="A54" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="184"/>
-      <c r="C54" s="184"/>
-      <c r="D54" s="184"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="185"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="190"/>
+      <c r="H54" s="190"/>
+      <c r="I54" s="191"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -31867,6 +33240,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -31882,31 +33280,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31918,7 +33291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C029A2BA-8792-41AE-B096-F71FDB23FBDB}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="73" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="73" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
@@ -31930,17 +33303,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -31949,13 +33322,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="186" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="188"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -31968,13 +33341,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -31987,13 +33360,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="186" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -32008,13 +33381,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="186" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -32025,13 +33398,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="186" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -32042,28 +33415,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="186" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="188"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -32429,17 +33802,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="185"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="191"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -32603,17 +33976,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="183" t="s">
+      <c r="A54" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="184"/>
-      <c r="C54" s="184"/>
-      <c r="D54" s="184"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="185"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="190"/>
+      <c r="H54" s="190"/>
+      <c r="I54" s="191"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -32887,6 +34260,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -32902,31 +34300,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32948,17 +34321,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -32967,13 +34340,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="188"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -32986,13 +34359,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -33005,13 +34378,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="186" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -33026,13 +34399,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="186" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -33043,13 +34416,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="186" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -33071,17 +34444,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -33447,17 +34820,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="185"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="191"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -33621,17 +34994,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="183" t="s">
+      <c r="A54" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="184"/>
-      <c r="C54" s="184"/>
-      <c r="D54" s="184"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="185"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="190"/>
+      <c r="H54" s="190"/>
+      <c r="I54" s="191"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -33903,6 +35276,31 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -33917,31 +35315,6 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33963,17 +35336,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -33982,13 +35355,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="188"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -34001,13 +35374,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -34020,13 +35393,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -34041,13 +35414,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="186" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -34058,13 +35431,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="186" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -34075,28 +35448,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="186" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="188"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -34462,17 +35835,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="185"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="191"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -34636,17 +36009,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="183" t="s">
+      <c r="A54" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="184"/>
-      <c r="C54" s="184"/>
-      <c r="D54" s="184"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="185"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="190"/>
+      <c r="H54" s="190"/>
+      <c r="I54" s="191"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -34918,6 +36291,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -34933,31 +36331,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34979,17 +36352,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -34998,13 +36371,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="188"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -35017,13 +36390,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="186" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -35036,13 +36409,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -35057,13 +36430,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="186" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -35076,13 +36449,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="186" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -35106,17 +36479,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -35482,17 +36855,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="185"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="191"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -35646,17 +37019,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="183" t="s">
+      <c r="A54" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="184"/>
-      <c r="C54" s="184"/>
-      <c r="D54" s="184"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="185"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="190"/>
+      <c r="H54" s="190"/>
+      <c r="I54" s="191"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -35928,6 +37301,31 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -35942,31 +37340,6 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35988,17 +37361,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -36007,13 +37380,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="186" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="188"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -36026,13 +37399,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -36045,13 +37418,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -36066,13 +37439,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="186" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -36085,13 +37458,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="186" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -36115,17 +37488,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -36491,17 +37864,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="185"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="191"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -36715,17 +38088,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="183" t="s">
+      <c r="A54" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="184"/>
-      <c r="C54" s="184"/>
-      <c r="D54" s="184"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="185"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="190"/>
+      <c r="H54" s="190"/>
+      <c r="I54" s="191"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -36997,6 +38370,31 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -37011,24 +38409,991 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E96ED3-E446-4125-8620-1A87962304DE}">
+  <dimension ref="A1:I78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="9" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="186" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="186" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="6">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="186" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="186" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="186" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="6">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="183" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="189" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="191"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="157" t="s">
+        <v>341</v>
+      </c>
+      <c r="C44" s="156"/>
+      <c r="D44" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="156"/>
+      <c r="F44" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="G44" s="157" t="s">
+        <v>343</v>
+      </c>
+      <c r="H44" s="155"/>
+      <c r="I44" s="156"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="157" t="s">
+        <v>344</v>
+      </c>
+      <c r="C45" s="156"/>
+      <c r="D45" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="156"/>
+      <c r="F45" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="G45" s="157" t="s">
+        <v>345</v>
+      </c>
+      <c r="H45" s="155"/>
+      <c r="I45" s="156"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="157" t="s">
+        <v>346</v>
+      </c>
+      <c r="C46" s="156"/>
+      <c r="D46" s="157" t="s">
+        <v>347</v>
+      </c>
+      <c r="E46" s="156"/>
+      <c r="F46" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G46" s="157" t="s">
+        <v>348</v>
+      </c>
+      <c r="H46" s="155"/>
+      <c r="I46" s="156"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="157" t="s">
+        <v>349</v>
+      </c>
+      <c r="C47" s="156"/>
+      <c r="D47" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="156"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="155"/>
+      <c r="I47" s="156"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="26"/>
+      <c r="B48" s="157"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="157"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="156"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="26"/>
+      <c r="B49" s="157"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="156"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="26"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="157"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="156"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="26"/>
+      <c r="B51" s="157"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="157"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="155"/>
+      <c r="I51" s="156"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="26"/>
+      <c r="B52" s="157"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="157"/>
+      <c r="E52" s="156"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="157"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="156"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="26"/>
+      <c r="B53" s="157"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="156"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="156"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="189" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="190"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="190"/>
+      <c r="H54" s="190"/>
+      <c r="I54" s="191"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="18"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="18"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="16"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="18"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="18"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="16"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="18"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="18"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="16"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="18"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="16"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="16"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="18"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="16"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="16"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="18"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
@@ -37036,11 +39401,55 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4BC3E8-1F30-49E9-A269-E84A057053A5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="58" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -37691,164 +40100,164 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="176" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="158"/>
-      <c r="AD1" s="158"/>
-      <c r="AE1" s="158"/>
-      <c r="AF1" s="158"/>
-      <c r="AG1" s="158"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="159" t="s">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="177" t="s">
         <v>327</v>
       </c>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="162" t="s">
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="180" t="s">
         <v>328</v>
       </c>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="159" t="s">
+      <c r="AA2" s="181"/>
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="181"/>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="177" t="s">
         <v>329</v>
       </c>
-      <c r="AG2" s="161"/>
+      <c r="AG2" s="179"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="165" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158" t="s">
         <v>330</v>
       </c>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="171" t="s">
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="164" t="s">
         <v>331</v>
       </c>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="177" t="s">
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="170" t="s">
         <v>332</v>
       </c>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="178"/>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="165" t="s">
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="158" t="s">
         <v>261</v>
       </c>
-      <c r="AG3" s="167"/>
+      <c r="AG3" s="160"/>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="168"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
-      <c r="S4" s="175"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="175"/>
-      <c r="V4" s="175"/>
-      <c r="W4" s="175"/>
-      <c r="X4" s="175"/>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="181"/>
-      <c r="AB4" s="181"/>
-      <c r="AC4" s="181"/>
-      <c r="AD4" s="181"/>
-      <c r="AE4" s="182"/>
-      <c r="AF4" s="168"/>
-      <c r="AG4" s="170"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="168"/>
+      <c r="W4" s="168"/>
+      <c r="X4" s="168"/>
+      <c r="Y4" s="169"/>
+      <c r="Z4" s="173"/>
+      <c r="AA4" s="174"/>
+      <c r="AB4" s="174"/>
+      <c r="AC4" s="174"/>
+      <c r="AD4" s="174"/>
+      <c r="AE4" s="175"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="163"/>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="88"/>
@@ -39251,17 +41660,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39281,166 +41690,166 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="176" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="158"/>
-      <c r="AD1" s="158"/>
-      <c r="AE1" s="158"/>
-      <c r="AF1" s="158"/>
-      <c r="AG1" s="158"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="159" t="s">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="177" t="s">
         <v>333</v>
       </c>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="159" t="s">
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="177" t="s">
         <v>327</v>
       </c>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="162" t="s">
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="180" t="s">
         <v>328</v>
       </c>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="159" t="s">
+      <c r="AA2" s="181"/>
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="181"/>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="177" t="s">
         <v>329</v>
       </c>
-      <c r="AG2" s="161"/>
+      <c r="AG2" s="179"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="165" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158" t="s">
         <v>330</v>
       </c>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="171" t="s">
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="164" t="s">
         <v>334</v>
       </c>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="177" t="s">
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="170" t="s">
         <v>332</v>
       </c>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="178"/>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="165" t="s">
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="158" t="s">
         <v>335</v>
       </c>
-      <c r="AG3" s="167"/>
+      <c r="AG3" s="160"/>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="168"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
-      <c r="S4" s="175"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="175"/>
-      <c r="V4" s="175"/>
-      <c r="W4" s="175"/>
-      <c r="X4" s="175"/>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="181"/>
-      <c r="AB4" s="181"/>
-      <c r="AC4" s="181"/>
-      <c r="AD4" s="181"/>
-      <c r="AE4" s="182"/>
-      <c r="AF4" s="168"/>
-      <c r="AG4" s="170"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="168"/>
+      <c r="W4" s="168"/>
+      <c r="X4" s="168"/>
+      <c r="Y4" s="169"/>
+      <c r="Z4" s="173"/>
+      <c r="AA4" s="174"/>
+      <c r="AB4" s="174"/>
+      <c r="AC4" s="174"/>
+      <c r="AD4" s="174"/>
+      <c r="AE4" s="175"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="163"/>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="88"/>
@@ -40844,17 +43253,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40874,166 +43283,166 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="176" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="158"/>
-      <c r="AD1" s="158"/>
-      <c r="AE1" s="158"/>
-      <c r="AF1" s="158"/>
-      <c r="AG1" s="158"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="159" t="s">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="177" t="s">
         <v>333</v>
       </c>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="159" t="s">
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="177" t="s">
         <v>327</v>
       </c>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="162" t="s">
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="180" t="s">
         <v>328</v>
       </c>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="159" t="s">
+      <c r="AA2" s="181"/>
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="181"/>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="177" t="s">
         <v>329</v>
       </c>
-      <c r="AG2" s="161"/>
+      <c r="AG2" s="179"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="165" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="158" t="s">
         <v>330</v>
       </c>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="171" t="s">
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="164" t="s">
         <v>336</v>
       </c>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="177" t="s">
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="170" t="s">
         <v>332</v>
       </c>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="178"/>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="165" t="s">
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="158" t="s">
         <v>337</v>
       </c>
-      <c r="AG3" s="167"/>
+      <c r="AG3" s="160"/>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="168"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
-      <c r="S4" s="175"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="175"/>
-      <c r="V4" s="175"/>
-      <c r="W4" s="175"/>
-      <c r="X4" s="175"/>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="181"/>
-      <c r="AB4" s="181"/>
-      <c r="AC4" s="181"/>
-      <c r="AD4" s="181"/>
-      <c r="AE4" s="182"/>
-      <c r="AF4" s="168"/>
-      <c r="AG4" s="170"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="168"/>
+      <c r="W4" s="168"/>
+      <c r="X4" s="168"/>
+      <c r="Y4" s="169"/>
+      <c r="Z4" s="173"/>
+      <c r="AA4" s="174"/>
+      <c r="AB4" s="174"/>
+      <c r="AC4" s="174"/>
+      <c r="AD4" s="174"/>
+      <c r="AE4" s="175"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="163"/>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="88"/>
@@ -42437,17 +44846,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42470,17 +44879,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -42489,13 +44898,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="188"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -42508,13 +44917,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -42527,13 +44936,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -42548,13 +44957,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -42565,13 +44974,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="186" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -42582,28 +44991,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="188"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -42969,17 +45378,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="185"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="191"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -43080,11 +45489,11 @@
       <c r="F47" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="186" t="s">
+      <c r="G47" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="187"/>
-      <c r="I47" s="188"/>
+      <c r="H47" s="193"/>
+      <c r="I47" s="194"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="26" t="s">
@@ -43101,11 +45510,11 @@
       <c r="F48" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="186" t="s">
+      <c r="G48" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="H48" s="187"/>
-      <c r="I48" s="188"/>
+      <c r="H48" s="193"/>
+      <c r="I48" s="194"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="26"/>
@@ -43163,17 +45572,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="183" t="s">
+      <c r="A54" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="184"/>
-      <c r="C54" s="184"/>
-      <c r="D54" s="184"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="185"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="190"/>
+      <c r="H54" s="190"/>
+      <c r="I54" s="191"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -43442,6 +45851,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -43457,31 +45891,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43503,17 +45912,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -43522,13 +45931,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="188"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -43541,13 +45950,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -43560,13 +45969,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -43581,13 +45990,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="186" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -43600,13 +46009,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -43619,28 +46028,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="188"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -44007,17 +46416,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="185"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="191"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -44277,12 +46686,12 @@
       </c>
       <c r="B55" s="196"/>
       <c r="C55" s="196"/>
-      <c r="D55" s="184"/>
-      <c r="E55" s="184"/>
-      <c r="F55" s="184"/>
-      <c r="G55" s="184"/>
-      <c r="H55" s="184"/>
-      <c r="I55" s="185"/>
+      <c r="D55" s="190"/>
+      <c r="E55" s="190"/>
+      <c r="F55" s="190"/>
+      <c r="G55" s="190"/>
+      <c r="H55" s="190"/>
+      <c r="I55" s="191"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="16"/>
@@ -44562,6 +46971,34 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -44577,34 +47014,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:I54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44626,17 +47035,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -44645,13 +47054,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="188"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -44664,13 +47073,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -44683,13 +47092,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -44704,13 +47113,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -44721,13 +47130,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -44738,28 +47147,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="186" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="188"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -45125,17 +47534,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="185"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="191"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -45289,17 +47698,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="183" t="s">
+      <c r="A54" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="184"/>
-      <c r="C54" s="184"/>
-      <c r="D54" s="184"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="185"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="190"/>
+      <c r="H54" s="190"/>
+      <c r="I54" s="191"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -45571,6 +47980,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -45586,31 +48020,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45632,17 +48041,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -45651,13 +48060,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="186" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="194"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="188"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -45670,13 +48079,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="194"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -45689,13 +48098,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -45710,13 +48119,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="186" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -45727,13 +48136,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="186" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -45744,28 +48153,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="186" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="188"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -46130,17 +48539,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="185"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="191"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -46294,17 +48703,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="183" t="s">
+      <c r="A54" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="184"/>
-      <c r="C54" s="184"/>
-      <c r="D54" s="184"/>
-      <c r="E54" s="184"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="185"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="190"/>
+      <c r="H54" s="190"/>
+      <c r="I54" s="191"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -46576,6 +48985,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -46591,31 +49025,6 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46633,6 +49042,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="62746eb1d78ebc3451d4db4eb7c635bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38d8a6a4b62d5c94138e82bba83eb1ac" ns2:_="">
     <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
@@ -46804,16 +49223,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D6D0ED-279E-4F81-A4AC-DC90877256C5}">
   <ds:schemaRefs>
@@ -46823,6 +49232,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567701D2-B8CD-4541-95EE-63CDD03DBC05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD00A5B4-C2F5-4FFC-B96D-D98E5FBEF112}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46838,14 +49257,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567701D2-B8CD-4541-95EE-63CDD03DBC05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面設計書.xlsx
+++ b/02_画面設計書・モックアップ/画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\abcc_system_grpA\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A567A2-05CE-4E1A-B049-70AAAAA9A853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C430465-D608-4E11-AA16-3A6405137201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="17" xr2:uid="{F45AE85F-3EC2-42A9-8800-A50263340ACB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="17" xr2:uid="{F45AE85F-3EC2-42A9-8800-A50263340ACB}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -29,8 +29,8 @@
     <sheet name="検索結果画面" sheetId="7" r:id="rId14"/>
     <sheet name="プロフィール画面" sheetId="8" r:id="rId15"/>
     <sheet name="プロフィール修正画面" sheetId="9" r:id="rId16"/>
-    <sheet name="パスワード変更画面" sheetId="19" r:id="rId17"/>
-    <sheet name="パスワード確認画面" sheetId="20" r:id="rId18"/>
+    <sheet name="パスワード確認画面" sheetId="21" r:id="rId17"/>
+    <sheet name="パスワード変更画面" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="361">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -2605,10 +2605,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テキスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラー文を表示する</t>
     <rPh sb="3" eb="4">
       <t>ブン</t>
@@ -2619,7 +2615,172 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ｋ</t>
+    <t>変更ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押すとパスワードを変更する</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード確認の入力を行う</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押すとパスワード変更画面へ遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１５０桁</t>
+    <rPh sb="3" eb="4">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.パスワード確認のための入力を行う</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.変更するボタンを押すと、パスワード変更画面へ遷移する。</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.パスワードが間違っている場合、エラー文を表示する</t>
+    <rPh sb="8" eb="10">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.変更するパスワードの入力を行う</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.変更するパスワードの確認の入力を行う。</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.変更するボタンを押すとパスワードを変更しプロフィール画面に遷移する</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４．パスワードが一致しない場合エラー文を表示する</t>
+    <rPh sb="8" eb="10">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3302,33 +3463,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3353,41 +3487,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3407,7 +3508,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3446,6 +3553,60 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3469,6 +3630,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3524,26 +3706,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3562,24 +3741,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -13166,6 +13327,990 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360161</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>535199</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900F63BC-4511-7C39-C5F2-994DA8E8D211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360161" y="2660021"/>
+          <a:ext cx="6959512" cy="4927629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>646918</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>413164</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53929</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F29838-577B-46AF-A51C-98F7F0500F1E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CBE2FB52-475A-4B47-A583-FA65953C054F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6476218" y="4159664"/>
+          <a:ext cx="737796" cy="237665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>904128</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>132976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F05B0D-5C55-45C2-940A-B5AD5208F3C4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A94ADE38-0030-4AA4-B046-643567AAD99C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3817657" y="4267574"/>
+          <a:ext cx="3372784" cy="347755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347891</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146A5AA2-C2F8-4608-B057-4EFCF139BFED}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FCCDA95D-1D68-450C-8830-1ABFE52B2658}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7148741" y="3835354"/>
+          <a:ext cx="901700" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>892175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>618296</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148398</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4AFB78-B25C-4E25-B240-08D1BF024A58}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A6CF1C69-4022-40AA-AEEC-A7B1A0CF92DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4778375" y="3797300"/>
+          <a:ext cx="697671" cy="237298"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>112184</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>901699</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69851</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BD6C6F-E6AB-48C8-83FB-0258FEF51688}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{17BE2145-7BCB-4C16-9549-DA5D54DAC79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3026834" y="4026775"/>
+          <a:ext cx="1761065" cy="157876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519205</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101692</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10C6199-20A0-4595-ACDF-9FAA3E253E09}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8D25F3BE-D260-5EE4-1582-10F92A110C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5376955" y="3530692"/>
+          <a:ext cx="901700" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>239558</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85479</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901700" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC31070-3816-45AC-874F-7E5A26E6B77B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8D25F3BE-D260-5EE4-1582-10F92A110C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095440" y="5016067"/>
+          <a:ext cx="901700" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>649852</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>141503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>375973</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>150201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70ACFEC4-4776-4721-B016-1CE57BE8B4BD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{33DC545D-EE11-4CAB-B347-587DCDDE313A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4534558" y="5296209"/>
+          <a:ext cx="697297" cy="232816"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>219822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3006EB1A-EDC2-44B9-B892-20EA797B2F5E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A94ADE38-0030-4AA4-B046-643567AAD99C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3310404" y="5374528"/>
+          <a:ext cx="1222002" cy="319368"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -29757,21 +30902,21 @@
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
-      <c r="U3" s="118" t="s">
+      <c r="U3" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="120"/>
-      <c r="W3" s="131">
+      <c r="V3" s="110"/>
+      <c r="W3" s="111">
         <v>45040</v>
       </c>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="133"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="112"/>
+      <c r="AB3" s="112"/>
+      <c r="AC3" s="112"/>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="113"/>
       <c r="AF3" s="35"/>
     </row>
     <row r="4" spans="1:32" ht="19">
@@ -29830,18 +30975,18 @@
       <c r="S5" s="37"/>
       <c r="T5" s="37"/>
       <c r="U5" s="37"/>
-      <c r="V5" s="121" t="s">
+      <c r="V5" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
       <c r="AF5" s="38"/>
     </row>
     <row r="6" spans="1:32">
@@ -29867,17 +31012,17 @@
       <c r="T6" s="35"/>
       <c r="U6" s="35"/>
       <c r="V6" s="35"/>
-      <c r="W6" s="121" t="s">
+      <c r="W6" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="117"/>
+      <c r="AA6" s="117"/>
+      <c r="AB6" s="117"/>
+      <c r="AC6" s="117"/>
+      <c r="AD6" s="117"/>
+      <c r="AE6" s="117"/>
       <c r="AF6" s="38"/>
     </row>
     <row r="7" spans="1:32">
@@ -29888,20 +31033,20 @@
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
-      <c r="F7" s="134" t="s">
+      <c r="F7" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="136"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="116"/>
       <c r="R7" s="35"/>
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
@@ -29920,80 +31065,80 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="35"/>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="142" t="s">
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="144"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="126"/>
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
-      <c r="W8" s="148" t="s">
+      <c r="W8" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="148"/>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="148" t="s">
+      <c r="X8" s="130"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="148"/>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="148" t="s">
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="130"/>
+      <c r="AC8" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="148"/>
-      <c r="AE8" s="148"/>
+      <c r="AD8" s="130"/>
+      <c r="AE8" s="130"/>
       <c r="AF8" s="35"/>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="35"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="147"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="129"/>
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="104"/>
+      <c r="W9" s="141"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="141"/>
+      <c r="AD9" s="142"/>
+      <c r="AE9" s="143"/>
       <c r="AF9" s="35"/>
     </row>
     <row r="10" spans="1:32">
@@ -30019,15 +31164,15 @@
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="107"/>
+      <c r="W10" s="144"/>
+      <c r="X10" s="145"/>
+      <c r="Y10" s="146"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="145"/>
+      <c r="AB10" s="146"/>
+      <c r="AC10" s="144"/>
+      <c r="AD10" s="145"/>
+      <c r="AE10" s="146"/>
       <c r="AF10" s="35"/>
     </row>
     <row r="11" spans="1:32">
@@ -30053,15 +31198,15 @@
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
       <c r="V11" s="35"/>
-      <c r="W11" s="105"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="105"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="105"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="107"/>
+      <c r="W11" s="144"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="146"/>
+      <c r="Z11" s="144"/>
+      <c r="AA11" s="145"/>
+      <c r="AB11" s="146"/>
+      <c r="AC11" s="144"/>
+      <c r="AD11" s="145"/>
+      <c r="AE11" s="146"/>
       <c r="AF11" s="35"/>
     </row>
     <row r="12" spans="1:32">
@@ -30087,15 +31232,15 @@
       <c r="T12" s="41"/>
       <c r="U12" s="41"/>
       <c r="V12" s="41"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="110"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="148"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="149"/>
       <c r="AF12" s="35"/>
     </row>
     <row r="13" spans="1:32">
@@ -30202,106 +31347,106 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="35"/>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="118" t="s">
         <v>338</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="137"/>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="137"/>
-      <c r="AE16" s="137"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
+      <c r="AE16" s="118"/>
       <c r="AF16" s="35"/>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="35"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="137"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="118"/>
       <c r="AF17" s="35"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="35"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="137"/>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137"/>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="137"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="118"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="118"/>
+      <c r="AE18" s="118"/>
       <c r="AF18" s="35"/>
     </row>
     <row r="19" spans="1:32">
@@ -30444,19 +31589,19 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="42"/>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="109" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="119"/>
       <c r="D23" s="119"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="118" t="s">
+      <c r="E23" s="131"/>
+      <c r="F23" s="109" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="119"/>
       <c r="H23" s="119"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="118" t="s">
+      <c r="I23" s="110"/>
+      <c r="J23" s="109" t="s">
         <v>13</v>
       </c>
       <c r="K23" s="119"/>
@@ -30476,690 +31621,712 @@
       <c r="Y23" s="119"/>
       <c r="Z23" s="119"/>
       <c r="AA23" s="119"/>
-      <c r="AB23" s="120"/>
-      <c r="AC23" s="118" t="s">
+      <c r="AB23" s="110"/>
+      <c r="AC23" s="109" t="s">
         <v>9</v>
       </c>
       <c r="AD23" s="119"/>
-      <c r="AE23" s="120"/>
+      <c r="AE23" s="110"/>
       <c r="AF23" s="42"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="35"/>
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114">
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105">
         <v>45040</v>
       </c>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="111" t="s">
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="112"/>
-      <c r="Y24" s="112"/>
-      <c r="Z24" s="112"/>
-      <c r="AA24" s="112"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="111" t="s">
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="103"/>
+      <c r="Z24" s="103"/>
+      <c r="AA24" s="103"/>
+      <c r="AB24" s="108"/>
+      <c r="AC24" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="AD24" s="112"/>
-      <c r="AE24" s="117"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="108"/>
       <c r="AF24" s="35"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="35"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114">
+      <c r="B25" s="102"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105">
         <v>45041</v>
       </c>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="111" t="s">
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="112"/>
-      <c r="W25" s="112"/>
-      <c r="X25" s="112"/>
-      <c r="Y25" s="112"/>
-      <c r="Z25" s="112"/>
-      <c r="AA25" s="112"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="111" t="s">
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="103"/>
+      <c r="V25" s="103"/>
+      <c r="W25" s="103"/>
+      <c r="X25" s="103"/>
+      <c r="Y25" s="103"/>
+      <c r="Z25" s="103"/>
+      <c r="AA25" s="103"/>
+      <c r="AB25" s="108"/>
+      <c r="AC25" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="AD25" s="112"/>
-      <c r="AE25" s="117"/>
+      <c r="AD25" s="103"/>
+      <c r="AE25" s="108"/>
       <c r="AF25" s="35"/>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="35"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114">
+      <c r="B26" s="102"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="105">
         <v>45041</v>
       </c>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="111" t="s">
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="112"/>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="112"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="111" t="s">
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="103"/>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="103"/>
+      <c r="Z26" s="103"/>
+      <c r="AA26" s="103"/>
+      <c r="AB26" s="108"/>
+      <c r="AC26" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="AD26" s="112"/>
-      <c r="AE26" s="117"/>
+      <c r="AD26" s="103"/>
+      <c r="AE26" s="108"/>
       <c r="AF26" s="35"/>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="35"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="114">
+      <c r="B27" s="102"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="105">
         <v>45041</v>
       </c>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="111" t="s">
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="112"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="112"/>
-      <c r="W27" s="112"/>
-      <c r="X27" s="112"/>
-      <c r="Y27" s="112"/>
-      <c r="Z27" s="112"/>
-      <c r="AA27" s="112"/>
-      <c r="AB27" s="117"/>
-      <c r="AC27" s="122" t="s">
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="103"/>
+      <c r="Y27" s="103"/>
+      <c r="Z27" s="103"/>
+      <c r="AA27" s="103"/>
+      <c r="AB27" s="108"/>
+      <c r="AC27" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="AD27" s="123"/>
-      <c r="AE27" s="124"/>
+      <c r="AD27" s="133"/>
+      <c r="AE27" s="134"/>
       <c r="AF27" s="35"/>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="35"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="114">
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="105">
         <v>45041</v>
       </c>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="111" t="s">
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
-      <c r="V28" s="112"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="112"/>
-      <c r="Y28" s="112"/>
-      <c r="Z28" s="112"/>
-      <c r="AA28" s="112"/>
-      <c r="AB28" s="112"/>
-      <c r="AC28" s="125" t="s">
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="103"/>
+      <c r="Z28" s="103"/>
+      <c r="AA28" s="103"/>
+      <c r="AB28" s="103"/>
+      <c r="AC28" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="AD28" s="126"/>
-      <c r="AE28" s="127"/>
+      <c r="AD28" s="136"/>
+      <c r="AE28" s="137"/>
       <c r="AF28" s="35"/>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="35"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="114">
+      <c r="B29" s="102"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="105">
         <v>45042</v>
       </c>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="111" t="s">
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="112"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="112"/>
-      <c r="Y29" s="112"/>
-      <c r="Z29" s="112"/>
-      <c r="AA29" s="112"/>
-      <c r="AB29" s="117"/>
-      <c r="AC29" s="128" t="s">
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="108"/>
+      <c r="AC29" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="AD29" s="129"/>
-      <c r="AE29" s="130"/>
+      <c r="AD29" s="139"/>
+      <c r="AE29" s="140"/>
       <c r="AF29" s="35"/>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="35"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="114">
+      <c r="B30" s="102"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="105">
         <v>45042</v>
       </c>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="111" t="s">
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="112"/>
-      <c r="U30" s="112"/>
-      <c r="V30" s="112"/>
-      <c r="W30" s="112"/>
-      <c r="X30" s="112"/>
-      <c r="Y30" s="112"/>
-      <c r="Z30" s="112"/>
-      <c r="AA30" s="112"/>
-      <c r="AB30" s="117"/>
-      <c r="AC30" s="111" t="s">
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="103"/>
+      <c r="AB30" s="108"/>
+      <c r="AC30" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="AD30" s="112"/>
-      <c r="AE30" s="117"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="108"/>
       <c r="AF30" s="35"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="35"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="114">
+      <c r="B31" s="102"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="105">
         <v>45042</v>
       </c>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="111" t="s">
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="112"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="117"/>
-      <c r="AC31" s="111" t="s">
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="103"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="103"/>
+      <c r="Y31" s="103"/>
+      <c r="Z31" s="103"/>
+      <c r="AA31" s="103"/>
+      <c r="AB31" s="108"/>
+      <c r="AC31" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="AD31" s="112"/>
-      <c r="AE31" s="117"/>
+      <c r="AD31" s="103"/>
+      <c r="AE31" s="108"/>
       <c r="AF31" s="35"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="35"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="114">
+      <c r="B32" s="102"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="105">
         <v>45042</v>
       </c>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="111" t="s">
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="112"/>
-      <c r="Z32" s="112"/>
-      <c r="AA32" s="112"/>
-      <c r="AB32" s="117"/>
-      <c r="AC32" s="111" t="s">
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="103"/>
+      <c r="W32" s="103"/>
+      <c r="X32" s="103"/>
+      <c r="Y32" s="103"/>
+      <c r="Z32" s="103"/>
+      <c r="AA32" s="103"/>
+      <c r="AB32" s="108"/>
+      <c r="AC32" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="AD32" s="112"/>
-      <c r="AE32" s="117"/>
+      <c r="AD32" s="103"/>
+      <c r="AE32" s="108"/>
       <c r="AF32" s="35"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="35"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="114" t="s">
+      <c r="B33" s="102"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="111" t="s">
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="112"/>
-      <c r="W33" s="112"/>
-      <c r="X33" s="112"/>
-      <c r="Y33" s="112"/>
-      <c r="Z33" s="112"/>
-      <c r="AA33" s="112"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="111" t="s">
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="103"/>
+      <c r="Y33" s="103"/>
+      <c r="Z33" s="103"/>
+      <c r="AA33" s="103"/>
+      <c r="AB33" s="108"/>
+      <c r="AC33" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="AD33" s="112"/>
-      <c r="AE33" s="117"/>
+      <c r="AD33" s="103"/>
+      <c r="AE33" s="108"/>
       <c r="AF33" s="35"/>
     </row>
     <row r="34" spans="1:32" ht="18" customHeight="1">
-      <c r="B34" s="111"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="114" t="s">
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="111" t="s">
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="112"/>
-      <c r="S34" s="112"/>
-      <c r="T34" s="112"/>
-      <c r="U34" s="112"/>
-      <c r="V34" s="112"/>
-      <c r="W34" s="112"/>
-      <c r="X34" s="112"/>
-      <c r="Y34" s="112"/>
-      <c r="Z34" s="112"/>
-      <c r="AA34" s="112"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="111" t="s">
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="103"/>
+      <c r="W34" s="103"/>
+      <c r="X34" s="103"/>
+      <c r="Y34" s="103"/>
+      <c r="Z34" s="103"/>
+      <c r="AA34" s="103"/>
+      <c r="AB34" s="108"/>
+      <c r="AC34" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="AD34" s="112"/>
-      <c r="AE34" s="117"/>
+      <c r="AD34" s="103"/>
+      <c r="AE34" s="108"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="114">
+      <c r="B35" s="102"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="105">
         <v>45043</v>
       </c>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="111" t="s">
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="112"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="112"/>
-      <c r="S35" s="112"/>
-      <c r="T35" s="112"/>
-      <c r="U35" s="112"/>
-      <c r="V35" s="112"/>
-      <c r="W35" s="112"/>
-      <c r="X35" s="112"/>
-      <c r="Y35" s="112"/>
-      <c r="Z35" s="112"/>
-      <c r="AA35" s="112"/>
-      <c r="AB35" s="117"/>
-      <c r="AC35" s="111" t="s">
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="T35" s="103"/>
+      <c r="U35" s="103"/>
+      <c r="V35" s="103"/>
+      <c r="W35" s="103"/>
+      <c r="X35" s="103"/>
+      <c r="Y35" s="103"/>
+      <c r="Z35" s="103"/>
+      <c r="AA35" s="103"/>
+      <c r="AB35" s="108"/>
+      <c r="AC35" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="AD35" s="112"/>
-      <c r="AE35" s="117"/>
+      <c r="AD35" s="103"/>
+      <c r="AE35" s="108"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="B36" s="111"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="114">
+      <c r="B36" s="102"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="105">
         <v>45047</v>
       </c>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="111" t="s">
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="K36" s="112"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="112"/>
-      <c r="S36" s="112"/>
-      <c r="T36" s="112"/>
-      <c r="U36" s="112"/>
-      <c r="V36" s="112"/>
-      <c r="W36" s="112"/>
-      <c r="X36" s="112"/>
-      <c r="Y36" s="112"/>
-      <c r="Z36" s="112"/>
-      <c r="AA36" s="112"/>
-      <c r="AB36" s="117"/>
-      <c r="AC36" s="111" t="s">
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="103"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="103"/>
+      <c r="V36" s="103"/>
+      <c r="W36" s="103"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="103"/>
+      <c r="AA36" s="103"/>
+      <c r="AB36" s="108"/>
+      <c r="AC36" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="AD36" s="112"/>
-      <c r="AE36" s="117"/>
+      <c r="AD36" s="103"/>
+      <c r="AE36" s="108"/>
     </row>
     <row r="37" spans="1:32">
-      <c r="B37" s="111"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="114">
+      <c r="B37" s="102"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="105">
         <v>45047</v>
       </c>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="111" t="s">
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="112"/>
-      <c r="S37" s="112"/>
-      <c r="T37" s="112"/>
-      <c r="U37" s="112"/>
-      <c r="V37" s="112"/>
-      <c r="W37" s="112"/>
-      <c r="X37" s="112"/>
-      <c r="Y37" s="112"/>
-      <c r="Z37" s="112"/>
-      <c r="AA37" s="112"/>
-      <c r="AB37" s="117"/>
-      <c r="AC37" s="111" t="s">
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="103"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="103"/>
+      <c r="T37" s="103"/>
+      <c r="U37" s="103"/>
+      <c r="V37" s="103"/>
+      <c r="W37" s="103"/>
+      <c r="X37" s="103"/>
+      <c r="Y37" s="103"/>
+      <c r="Z37" s="103"/>
+      <c r="AA37" s="103"/>
+      <c r="AB37" s="108"/>
+      <c r="AC37" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="AD37" s="112"/>
-      <c r="AE37" s="117"/>
+      <c r="AD37" s="103"/>
+      <c r="AE37" s="108"/>
     </row>
     <row r="38" spans="1:32">
-      <c r="B38" s="111"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="112"/>
-      <c r="S38" s="112"/>
-      <c r="T38" s="112"/>
-      <c r="U38" s="112"/>
-      <c r="V38" s="112"/>
-      <c r="W38" s="112"/>
-      <c r="X38" s="112"/>
-      <c r="Y38" s="112"/>
-      <c r="Z38" s="112"/>
-      <c r="AA38" s="112"/>
-      <c r="AB38" s="117"/>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="112"/>
-      <c r="AE38" s="117"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="103"/>
+      <c r="O38" s="103"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="103"/>
+      <c r="T38" s="103"/>
+      <c r="U38" s="103"/>
+      <c r="V38" s="103"/>
+      <c r="W38" s="103"/>
+      <c r="X38" s="103"/>
+      <c r="Y38" s="103"/>
+      <c r="Z38" s="103"/>
+      <c r="AA38" s="103"/>
+      <c r="AB38" s="108"/>
+      <c r="AC38" s="102"/>
+      <c r="AD38" s="103"/>
+      <c r="AE38" s="108"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="B39" s="111"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="112"/>
-      <c r="L39" s="112"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="112"/>
-      <c r="S39" s="112"/>
-      <c r="T39" s="112"/>
-      <c r="U39" s="112"/>
-      <c r="V39" s="112"/>
-      <c r="W39" s="112"/>
-      <c r="X39" s="112"/>
-      <c r="Y39" s="112"/>
-      <c r="Z39" s="112"/>
-      <c r="AA39" s="112"/>
-      <c r="AB39" s="117"/>
-      <c r="AC39" s="111"/>
-      <c r="AD39" s="112"/>
-      <c r="AE39" s="117"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="103"/>
+      <c r="T39" s="103"/>
+      <c r="U39" s="103"/>
+      <c r="V39" s="103"/>
+      <c r="W39" s="103"/>
+      <c r="X39" s="103"/>
+      <c r="Y39" s="103"/>
+      <c r="Z39" s="103"/>
+      <c r="AA39" s="103"/>
+      <c r="AB39" s="108"/>
+      <c r="AC39" s="102"/>
+      <c r="AD39" s="103"/>
+      <c r="AE39" s="108"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="B40" s="111"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="112"/>
-      <c r="S40" s="112"/>
-      <c r="T40" s="112"/>
-      <c r="U40" s="112"/>
-      <c r="V40" s="112"/>
-      <c r="W40" s="112"/>
-      <c r="X40" s="112"/>
-      <c r="Y40" s="112"/>
-      <c r="Z40" s="112"/>
-      <c r="AA40" s="112"/>
-      <c r="AB40" s="117"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="112"/>
-      <c r="AE40" s="117"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
+      <c r="T40" s="103"/>
+      <c r="U40" s="103"/>
+      <c r="V40" s="103"/>
+      <c r="W40" s="103"/>
+      <c r="X40" s="103"/>
+      <c r="Y40" s="103"/>
+      <c r="Z40" s="103"/>
+      <c r="AA40" s="103"/>
+      <c r="AB40" s="108"/>
+      <c r="AC40" s="102"/>
+      <c r="AD40" s="103"/>
+      <c r="AE40" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="AC9:AE12"/>
+    <mergeCell ref="Z9:AB12"/>
+    <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="W6:AE6"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
     <mergeCell ref="J24:AB24"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="U3:V3"/>
@@ -31176,52 +32343,30 @@
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="W6:AE6"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC9:AE12"/>
-    <mergeCell ref="Z9:AB12"/>
-    <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31242,17 +32387,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -31261,13 +32406,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -31280,13 +32425,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -31299,13 +32444,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -31320,13 +32465,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -31337,13 +32482,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -31354,28 +32499,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -31740,17 +32885,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -31934,17 +33079,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -32222,31 +33367,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -32262,6 +33382,31 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32283,17 +33428,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -32302,13 +33447,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -32321,13 +33466,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -32340,13 +33485,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -32361,13 +33506,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -32378,13 +33523,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -32395,28 +33540,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -32782,17 +33927,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -32956,17 +34101,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -33240,31 +34385,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -33280,6 +34400,31 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33303,17 +34448,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -33322,13 +34467,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -33341,13 +34486,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -33360,13 +34505,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -33381,13 +34526,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -33398,13 +34543,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -33415,28 +34560,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -33802,17 +34947,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -33976,17 +35121,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -34260,31 +35405,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -34300,6 +35420,31 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34321,17 +35466,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -34340,13 +35485,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -34359,13 +35504,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -34378,13 +35523,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -34399,13 +35544,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -34416,13 +35561,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -34444,17 +35589,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -34820,17 +35965,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -34994,17 +36139,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -35276,31 +36421,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -35315,6 +36435,31 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35336,17 +36481,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -35355,13 +36500,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -35374,13 +36519,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -35393,13 +36538,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -35414,13 +36559,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -35431,13 +36576,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -35448,28 +36593,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -35835,17 +36980,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -36009,17 +37154,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -36291,31 +37436,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -36331,6 +37451,31 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36352,17 +37497,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -36371,13 +37516,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -36390,13 +37535,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -36409,13 +37554,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -36430,13 +37575,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -36449,13 +37594,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -36479,17 +37624,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -36855,17 +38000,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -37019,17 +38164,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -37301,31 +38446,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -37340,6 +38460,31 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37351,7 +38496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C41FAF8-D1F7-4E5C-AFBC-E54EEB733016}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="135" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="76" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
@@ -37361,17 +38506,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -37380,13 +38525,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -37399,13 +38544,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -37418,13 +38563,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -37439,13 +38584,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -37458,13 +38603,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -37488,17 +38633,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -37864,17 +39009,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -38088,17 +39233,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -38370,31 +39515,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -38409,6 +39529,31 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38418,11 +39563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E96ED3-E446-4125-8620-1A87962304DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A687B33-1A23-48BE-B8D7-96BE886F6216}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:C47"/>
+    <sheetView topLeftCell="A47" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -38431,17 +39576,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -38450,13 +39595,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -38469,13 +39614,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -38488,13 +39633,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -38509,13 +39654,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -38528,13 +39673,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -38558,17 +39703,17 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -38932,17 +40077,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -38970,7 +40115,7 @@
         <v>63</v>
       </c>
       <c r="B44" s="157" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C44" s="156"/>
       <c r="D44" s="157" t="s">
@@ -38981,7 +40126,7 @@
         <v>342</v>
       </c>
       <c r="G44" s="157" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H44" s="155"/>
       <c r="I44" s="156"/>
@@ -38990,19 +40135,17 @@
       <c r="A45" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="157" t="s">
-        <v>344</v>
-      </c>
+      <c r="B45" s="157"/>
       <c r="C45" s="156"/>
       <c r="D45" s="157" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="E45" s="156"/>
       <c r="F45" s="26" t="s">
-        <v>342</v>
+        <v>247</v>
       </c>
       <c r="G45" s="157" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H45" s="155"/>
       <c r="I45" s="156"/>
@@ -39016,29 +40159,23 @@
       </c>
       <c r="C46" s="156"/>
       <c r="D46" s="157" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="E46" s="156"/>
       <c r="F46" s="26" t="s">
-        <v>247</v>
+        <v>353</v>
       </c>
       <c r="G46" s="157" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H46" s="155"/>
       <c r="I46" s="156"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="157" t="s">
-        <v>349</v>
-      </c>
+      <c r="A47" s="26"/>
+      <c r="B47" s="157"/>
       <c r="C47" s="156"/>
-      <c r="D47" s="157" t="s">
-        <v>130</v>
-      </c>
+      <c r="D47" s="157"/>
       <c r="E47" s="156"/>
       <c r="F47" s="27"/>
       <c r="G47" s="157"/>
@@ -39112,17 +40249,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -39137,7 +40274,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="16" t="s">
-        <v>249</v>
+        <v>354</v>
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -39161,7 +40298,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="16" t="s">
-        <v>250</v>
+        <v>355</v>
       </c>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -39184,7 +40321,9 @@
       <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="16"/>
+      <c r="A60" s="16" t="s">
+        <v>356</v>
+      </c>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -39441,15 +40580,1033 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4BC3E8-1F30-49E9-A269-E84A057053A5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E96ED3-E446-4125-8620-1A87962304DE}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="58" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="9" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="189" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="192" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="192" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="6">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="192" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="192" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="192" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="6">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="189" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="183" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="157" t="s">
+        <v>341</v>
+      </c>
+      <c r="C44" s="156"/>
+      <c r="D44" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="156"/>
+      <c r="F44" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="G44" s="157" t="s">
+        <v>343</v>
+      </c>
+      <c r="H44" s="155"/>
+      <c r="I44" s="156"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="157" t="s">
+        <v>344</v>
+      </c>
+      <c r="C45" s="156"/>
+      <c r="D45" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="156"/>
+      <c r="F45" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="G45" s="157" t="s">
+        <v>345</v>
+      </c>
+      <c r="H45" s="155"/>
+      <c r="I45" s="156"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="157" t="s">
+        <v>346</v>
+      </c>
+      <c r="C46" s="156"/>
+      <c r="D46" s="157" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="156"/>
+      <c r="F46" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G46" s="157" t="s">
+        <v>347</v>
+      </c>
+      <c r="H46" s="155"/>
+      <c r="I46" s="156"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="157" t="s">
+        <v>348</v>
+      </c>
+      <c r="C47" s="156"/>
+      <c r="D47" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="156"/>
+      <c r="F47" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" s="157" t="s">
+        <v>349</v>
+      </c>
+      <c r="H47" s="155"/>
+      <c r="I47" s="156"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="26"/>
+      <c r="B48" s="157"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="157"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="156"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="26"/>
+      <c r="B49" s="157"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="156"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="26"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="157"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="156"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="26"/>
+      <c r="B51" s="157"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="157"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="155"/>
+      <c r="I51" s="156"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="26"/>
+      <c r="B52" s="157"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="157"/>
+      <c r="E52" s="156"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="157"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="156"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="26"/>
+      <c r="B53" s="157"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="156"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="156"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="183" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="18"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="18"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="16"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="18"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="18"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="16"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="18"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="18"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="16"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="18"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="16"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="16"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="18"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="16"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="16"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="18"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -40093,171 +42250,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4940AC-F530-42B0-8979-F5E6D4AB90ED}">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="C9" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="158" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="158"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="177" t="s">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="159" t="s">
         <v>327</v>
       </c>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="180" t="s">
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="162" t="s">
         <v>328</v>
       </c>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="177" t="s">
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="159" t="s">
         <v>329</v>
       </c>
-      <c r="AG2" s="179"/>
+      <c r="AG2" s="161"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="158" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="165" t="s">
         <v>330</v>
       </c>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="164" t="s">
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="171" t="s">
         <v>331</v>
       </c>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="170" t="s">
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="177" t="s">
         <v>332</v>
       </c>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="158" t="s">
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="AG3" s="160"/>
+      <c r="AG3" s="167"/>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="173"/>
-      <c r="AA4" s="174"/>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="174"/>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="163"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="175"/>
+      <c r="S4" s="175"/>
+      <c r="T4" s="175"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="175"/>
+      <c r="W4" s="175"/>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="181"/>
+      <c r="AB4" s="181"/>
+      <c r="AC4" s="181"/>
+      <c r="AD4" s="181"/>
+      <c r="AE4" s="182"/>
+      <c r="AF4" s="168"/>
+      <c r="AG4" s="170"/>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="88"/>
@@ -41660,17 +43817,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41683,173 +43840,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC672772-03AD-4FD7-8FEC-E41D3AB37997}">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="158" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="158"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="177" t="s">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="159" t="s">
         <v>333</v>
       </c>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="177" t="s">
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="159" t="s">
         <v>327</v>
       </c>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="180" t="s">
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="162" t="s">
         <v>328</v>
       </c>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="177" t="s">
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="159" t="s">
         <v>329</v>
       </c>
-      <c r="AG2" s="179"/>
+      <c r="AG2" s="161"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="158" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="165" t="s">
         <v>330</v>
       </c>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="164" t="s">
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="171" t="s">
         <v>334</v>
       </c>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="170" t="s">
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="177" t="s">
         <v>332</v>
       </c>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="158" t="s">
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="165" t="s">
         <v>335</v>
       </c>
-      <c r="AG3" s="160"/>
+      <c r="AG3" s="167"/>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="173"/>
-      <c r="AA4" s="174"/>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="174"/>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="163"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="175"/>
+      <c r="S4" s="175"/>
+      <c r="T4" s="175"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="175"/>
+      <c r="W4" s="175"/>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="181"/>
+      <c r="AB4" s="181"/>
+      <c r="AC4" s="181"/>
+      <c r="AD4" s="181"/>
+      <c r="AE4" s="182"/>
+      <c r="AF4" s="168"/>
+      <c r="AG4" s="170"/>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="88"/>
@@ -43253,17 +45410,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43283,166 +45440,166 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="158" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="158"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="177" t="s">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="159" t="s">
         <v>333</v>
       </c>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="177" t="s">
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="159" t="s">
         <v>327</v>
       </c>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="180" t="s">
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="162" t="s">
         <v>328</v>
       </c>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="177" t="s">
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="159" t="s">
         <v>329</v>
       </c>
-      <c r="AG2" s="179"/>
+      <c r="AG2" s="161"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="158" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="165" t="s">
         <v>330</v>
       </c>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="164" t="s">
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="171" t="s">
         <v>336</v>
       </c>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="170" t="s">
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="177" t="s">
         <v>332</v>
       </c>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="158" t="s">
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="165" t="s">
         <v>337</v>
       </c>
-      <c r="AG3" s="160"/>
+      <c r="AG3" s="167"/>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="173"/>
-      <c r="AA4" s="174"/>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="174"/>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="163"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="175"/>
+      <c r="S4" s="175"/>
+      <c r="T4" s="175"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="175"/>
+      <c r="W4" s="175"/>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="181"/>
+      <c r="AB4" s="181"/>
+      <c r="AC4" s="181"/>
+      <c r="AD4" s="181"/>
+      <c r="AE4" s="182"/>
+      <c r="AF4" s="168"/>
+      <c r="AG4" s="170"/>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="88"/>
@@ -44846,17 +47003,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44879,17 +47036,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -44898,13 +47055,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -44917,13 +47074,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -44936,13 +47093,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -44957,13 +47114,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -44974,13 +47131,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -44991,28 +47148,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -45378,17 +47535,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -45489,11 +47646,11 @@
       <c r="F47" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="192" t="s">
+      <c r="G47" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="193"/>
-      <c r="I47" s="194"/>
+      <c r="H47" s="187"/>
+      <c r="I47" s="188"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="26" t="s">
@@ -45510,11 +47667,11 @@
       <c r="F48" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="192" t="s">
+      <c r="G48" s="186" t="s">
         <v>85</v>
       </c>
-      <c r="H48" s="193"/>
-      <c r="I48" s="194"/>
+      <c r="H48" s="187"/>
+      <c r="I48" s="188"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="26"/>
@@ -45572,17 +47729,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -45851,31 +48008,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -45891,6 +48023,31 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45902,7 +48059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D3AFEF-A7BF-4720-B848-560963C16316}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="94" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="94" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
@@ -45912,17 +48069,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -45931,13 +48088,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -45950,13 +48107,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -45969,13 +48126,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -45990,13 +48147,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -46009,13 +48166,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -46028,28 +48185,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -46416,17 +48573,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -46686,12 +48843,12 @@
       </c>
       <c r="B55" s="196"/>
       <c r="C55" s="196"/>
-      <c r="D55" s="190"/>
-      <c r="E55" s="190"/>
-      <c r="F55" s="190"/>
-      <c r="G55" s="190"/>
-      <c r="H55" s="190"/>
-      <c r="I55" s="191"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="184"/>
+      <c r="F55" s="184"/>
+      <c r="G55" s="184"/>
+      <c r="H55" s="184"/>
+      <c r="I55" s="185"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="16"/>
@@ -46971,34 +49128,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -47014,6 +49143,34 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47035,17 +49192,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -47054,13 +49211,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -47073,13 +49230,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -47092,13 +49249,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -47113,13 +49270,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -47130,13 +49287,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -47147,28 +49304,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -47534,17 +49691,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -47698,17 +49855,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -47980,31 +50137,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -48020,6 +50152,31 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48041,17 +50198,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -48060,13 +50217,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="192" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="194"/>
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
@@ -48079,13 +50236,13 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -48098,13 +50255,13 @@
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="192" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -48119,13 +50276,13 @@
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="192" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
@@ -48136,13 +50293,13 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
@@ -48153,28 +50310,28 @@
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
@@ -48539,17 +50696,17 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="189" t="s">
+      <c r="A42" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="22" t="s">
@@ -48703,17 +50860,17 @@
       <c r="I53" s="156"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="190"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="185"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="16"/>
@@ -48985,31 +51142,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="G45:I45"/>
@@ -49025,6 +51157,31 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49033,25 +51190,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="62746eb1d78ebc3451d4db4eb7c635bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38d8a6a4b62d5c94138e82bba83eb1ac" ns2:_="">
     <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
@@ -49223,10 +51361,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D6D0ED-279E-4F81-A4AC-DC90877256C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD00A5B4-C2F5-4FFC-B96D-D98E5FBEF112}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49242,19 +51409,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD00A5B4-C2F5-4FFC-B96D-D98E5FBEF112}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D6D0ED-279E-4F81-A4AC-DC90877256C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>